--- a/prot/356379915/Переход трубопровода через р. Енисей/Cрезы КД/1069.xlsx
+++ b/prot/356379915/Переход трубопровода через р. Енисей/Cрезы КД/1069.xlsx
@@ -2526,7 +2526,7 @@
         <v>0.1</v>
       </c>
       <c r="O47" s="65" t="n">
-        <v>0.08248693519093275</v>
+        <v>0.07598693519093275</v>
       </c>
       <c r="P47" s="66" t="n"/>
       <c r="Q47" s="66" t="n"/>
@@ -2545,7 +2545,7 @@
         <v>0.15</v>
       </c>
       <c r="O48" s="65" t="n">
-        <v>0.09873040278639912</v>
+        <v>0.1117304027863991</v>
       </c>
       <c r="P48" s="68">
         <f>SLOPE(O47:O49,N47:N49)</f>
@@ -2573,7 +2573,7 @@
         <v>0.2</v>
       </c>
       <c r="O49" s="65" t="n">
-        <v>0.1449738703818655</v>
+        <v>0.1384738703818655</v>
       </c>
       <c r="P49" s="71" t="n"/>
       <c r="Q49" s="71" t="n"/>
@@ -2859,26 +2859,26 @@
     </row>
     <row r="66">
       <c r="F66" s="60" t="n">
-        <v>0.002322584734997172</v>
+        <v>0.002157934014453896</v>
       </c>
       <c r="G66" s="100" t="n">
         <v>0.03620605733560987</v>
       </c>
       <c r="H66" s="100" t="n"/>
       <c r="J66" s="60" t="n">
-        <v>0.002322584734997172</v>
+        <v>0.002157934014453896</v>
       </c>
       <c r="K66" s="100" t="n">
         <v>0.03620605733560987</v>
       </c>
       <c r="L66" s="57" t="n">
-        <v>0.002644253080195288</v>
+        <v>0.003095613495643817</v>
       </c>
       <c r="M66" s="60" t="n">
         <v>0.03620605733560987</v>
       </c>
       <c r="N66" s="100" t="n">
-        <v>0.00384654289254397</v>
+        <v>0.003806479881201899</v>
       </c>
       <c r="O66" s="57" t="n">
         <v>0.03620605733560987</v>
@@ -2886,26 +2886,26 @@
     </row>
     <row r="67">
       <c r="F67" s="60" t="n">
-        <v>0.004323870366194814</v>
+        <v>0.004198218828693662</v>
       </c>
       <c r="G67" s="100" t="n">
         <v>0.07241211467121973</v>
       </c>
       <c r="H67" s="100" t="n"/>
       <c r="J67" s="60" t="n">
-        <v>0.004323870366194814</v>
+        <v>0.004198218828693662</v>
       </c>
       <c r="K67" s="100" t="n">
         <v>0.07241211467121973</v>
       </c>
       <c r="L67" s="57" t="n">
-        <v>0.005347505722017652</v>
+        <v>0.006143275331257072</v>
       </c>
       <c r="M67" s="60" t="n">
         <v>0.07241211467121973</v>
       </c>
       <c r="N67" s="100" t="n">
-        <v>0.007574948718363616</v>
+        <v>0.007588134893613348</v>
       </c>
       <c r="O67" s="57" t="n">
         <v>0.07241211467121973</v>
@@ -2913,26 +2913,26 @@
     </row>
     <row r="68">
       <c r="F68" s="60" t="n">
-        <v>0.006473034246003118</v>
+        <v>0.006252126181905592</v>
       </c>
       <c r="G68" s="100" t="n">
         <v>0.1086181720068296</v>
       </c>
       <c r="H68" s="100" t="n"/>
       <c r="J68" s="60" t="n">
-        <v>0.006473034246003118</v>
+        <v>0.006252126181905592</v>
       </c>
       <c r="K68" s="100" t="n">
         <v>0.1086181720068296</v>
       </c>
       <c r="L68" s="57" t="n">
-        <v>0.007761392332041769</v>
+        <v>0.009229480589806287</v>
       </c>
       <c r="M68" s="60" t="n">
         <v>0.1086181720068296</v>
       </c>
       <c r="N68" s="100" t="n">
-        <v>0.01158688350432164</v>
+        <v>0.01094325352407985</v>
       </c>
       <c r="O68" s="57" t="n">
         <v>0.1086181720068296</v>
@@ -2940,26 +2940,26 @@
     </row>
     <row r="69">
       <c r="F69" s="60" t="n">
-        <v>0.008826987094341945</v>
+        <v>0.008109125926338083</v>
       </c>
       <c r="G69" s="100" t="n">
         <v>0.1448242293424395</v>
       </c>
       <c r="H69" s="100" t="n"/>
       <c r="J69" s="60" t="n">
-        <v>0.008826987094341945</v>
+        <v>0.008109125926338083</v>
       </c>
       <c r="K69" s="100" t="n">
         <v>0.1448242293424395</v>
       </c>
       <c r="L69" s="57" t="n">
-        <v>0.01075293828636007</v>
+        <v>0.01226591323920985</v>
       </c>
       <c r="M69" s="60" t="n">
         <v>0.1448242293424395</v>
       </c>
       <c r="N69" s="100" t="n">
-        <v>0.01562244570362453</v>
+        <v>0.01539141865007724</v>
       </c>
       <c r="O69" s="57" t="n">
         <v>0.1448242293424395</v>
@@ -2967,26 +2967,26 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="F70" s="60" t="n">
-        <v>0.01165549468594954</v>
+        <v>0.009980573818165292</v>
       </c>
       <c r="G70" s="100" t="n">
         <v>0.1810302866780493</v>
       </c>
       <c r="H70" s="100" t="n"/>
       <c r="J70" s="60" t="n">
-        <v>0.01165549468594954</v>
+        <v>0.009980573818165292</v>
       </c>
       <c r="K70" s="100" t="n">
         <v>0.1810302866780493</v>
       </c>
       <c r="L70" s="57" t="n">
-        <v>0.01403653207073239</v>
+        <v>0.01492267799811828</v>
       </c>
       <c r="M70" s="60" t="n">
         <v>0.1810302866780493</v>
       </c>
       <c r="N70" s="100" t="n">
-        <v>0.02039439561884236</v>
+        <v>0.01900418932783852</v>
       </c>
       <c r="O70" s="57" t="n">
         <v>0.1810302866780493</v>
@@ -2994,26 +2994,26 @@
     </row>
     <row r="71">
       <c r="F71" s="60" t="n">
-        <v>0.0135093501844414</v>
+        <v>0.01293398154775121</v>
       </c>
       <c r="G71" s="100" t="n">
         <v>0.2172363440136592</v>
       </c>
       <c r="H71" s="100" t="n"/>
       <c r="J71" s="60" t="n">
-        <v>0.0135093501844414</v>
+        <v>0.01293398154775121</v>
       </c>
       <c r="K71" s="100" t="n">
         <v>0.2172363440136592</v>
       </c>
       <c r="L71" s="57" t="n">
-        <v>0.01608435321884306</v>
+        <v>0.0181603255247387</v>
       </c>
       <c r="M71" s="60" t="n">
         <v>0.2172363440136592</v>
       </c>
       <c r="N71" s="100" t="n">
-        <v>0.02441420620924868</v>
+        <v>0.02257483295553118</v>
       </c>
       <c r="O71" s="57" t="n">
         <v>0.2172363440136592</v>
@@ -3021,26 +3021,26 @@
     </row>
     <row r="72">
       <c r="F72" s="60" t="n">
-        <v>0.01559622595347127</v>
+        <v>0.0151503273581009</v>
       </c>
       <c r="G72" s="100" t="n">
         <v>0.253442401349269</v>
       </c>
       <c r="H72" s="100" t="n"/>
       <c r="J72" s="60" t="n">
-        <v>0.01559622595347127</v>
+        <v>0.0151503273581009</v>
       </c>
       <c r="K72" s="100" t="n">
         <v>0.253442401349269</v>
       </c>
       <c r="L72" s="57" t="n">
-        <v>0.01875006068508456</v>
+        <v>0.02160343680984449</v>
       </c>
       <c r="M72" s="60" t="n">
         <v>0.253442401349269</v>
       </c>
       <c r="N72" s="100" t="n">
-        <v>0.02679073020151964</v>
+        <v>0.02622145572709762</v>
       </c>
       <c r="O72" s="57" t="n">
         <v>0.253442401349269</v>
@@ -3051,26 +3051,26 @@
       <c r="B73" s="59" t="n"/>
       <c r="D73" s="101" t="n"/>
       <c r="F73" s="60" t="n">
-        <v>0.0186362442521826</v>
+        <v>0.0168622264222693</v>
       </c>
       <c r="G73" s="100" t="n">
         <v>0.2896484586848789</v>
       </c>
       <c r="H73" s="100" t="n"/>
       <c r="J73" s="60" t="n">
-        <v>0.0186362442521826</v>
+        <v>0.0168622264222693</v>
       </c>
       <c r="K73" s="100" t="n">
         <v>0.2896484586848789</v>
       </c>
       <c r="L73" s="57" t="n">
-        <v>0.02239837903224244</v>
+        <v>0.02522864300645874</v>
       </c>
       <c r="M73" s="60" t="n">
         <v>0.2896484586848789</v>
       </c>
       <c r="N73" s="100" t="n">
-        <v>0.03137090427842167</v>
+        <v>0.03064441984992895</v>
       </c>
       <c r="O73" s="57" t="n">
         <v>0.2896484586848789</v>
@@ -3078,26 +3078,26 @@
     </row>
     <row r="74">
       <c r="F74" s="60" t="n">
-        <v>0.02086091566196331</v>
+        <v>0.0194901380312628</v>
       </c>
       <c r="G74" s="100" t="n">
         <v>0.3258545160204888</v>
       </c>
       <c r="H74" s="100" t="n"/>
       <c r="J74" s="60" t="n">
-        <v>0.02086091566196331</v>
+        <v>0.0194901380312628</v>
       </c>
       <c r="K74" s="100" t="n">
         <v>0.3258545160204888</v>
       </c>
       <c r="L74" s="57" t="n">
-        <v>0.02472993443581423</v>
+        <v>0.02673517490767207</v>
       </c>
       <c r="M74" s="60" t="n">
         <v>0.3258545160204888</v>
       </c>
       <c r="N74" s="100" t="n">
-        <v>0.03448420977682999</v>
+        <v>0.03490489392249554</v>
       </c>
       <c r="O74" s="57" t="n">
         <v>0.3258545160204888</v>
@@ -3105,26 +3105,26 @@
     </row>
     <row r="75">
       <c r="F75" s="60" t="n">
-        <v>0.02283150535367662</v>
+        <v>0.0216082364393284</v>
       </c>
       <c r="G75" s="100" t="n">
         <v>0.3620605733560986</v>
       </c>
       <c r="H75" s="100" t="n"/>
       <c r="J75" s="60" t="n">
-        <v>0.02283150535367662</v>
+        <v>0.0216082364393284</v>
       </c>
       <c r="K75" s="100" t="n">
         <v>0.3620605733560986</v>
       </c>
       <c r="L75" s="57" t="n">
-        <v>0.02616898737986372</v>
+        <v>0.02968147057587895</v>
       </c>
       <c r="M75" s="60" t="n">
         <v>0.3620605733560986</v>
       </c>
       <c r="N75" s="100" t="n">
-        <v>0.03920969244580293</v>
+        <v>0.03838075168753376</v>
       </c>
       <c r="O75" s="57" t="n">
         <v>0.3620605733560986</v>
@@ -3134,26 +3134,26 @@
       <c r="A76" s="101" t="n"/>
       <c r="C76" s="102" t="n"/>
       <c r="F76" s="60" t="n">
-        <v>0.02465376868087438</v>
+        <v>0.02267244569600217</v>
       </c>
       <c r="G76" s="100" t="n">
         <v>0.3982666306917085</v>
       </c>
       <c r="H76" s="100" t="n"/>
       <c r="J76" s="60" t="n">
-        <v>0.02465376868087438</v>
+        <v>0.02267244569600217</v>
       </c>
       <c r="K76" s="100" t="n">
         <v>0.3982666306917085</v>
       </c>
       <c r="L76" s="57" t="n">
-        <v>0.0296531796737681</v>
+        <v>0.03230910014894602</v>
       </c>
       <c r="M76" s="60" t="n">
         <v>0.3982666306917085</v>
       </c>
       <c r="N76" s="100" t="n">
-        <v>0.04350751893323381</v>
+        <v>0.04068382246941116</v>
       </c>
       <c r="O76" s="57" t="n">
         <v>0.3982666306917085</v>
@@ -3161,25 +3161,25 @@
     </row>
     <row r="77" ht="15" customHeight="1">
       <c r="F77" t="n">
-        <v>0.02792495609784274</v>
+        <v>0.0248285952130943</v>
       </c>
       <c r="G77" t="n">
         <v>0.4344726880273184</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02792495609784274</v>
+        <v>0.0248285952130943</v>
       </c>
       <c r="K77" t="n">
         <v>0.4344726880273184</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03381413666941388</v>
+        <v>0.03765347853128089</v>
       </c>
       <c r="M77" t="n">
         <v>0.4344726880273184</v>
       </c>
       <c r="N77" t="n">
-        <v>0.04697697881945533</v>
+        <v>0.04686961241736199</v>
       </c>
       <c r="O77" t="n">
         <v>0.4344726880273184</v>
@@ -3188,25 +3188,25 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" s="101" t="n"/>
       <c r="F78" t="n">
-        <v>0.02949982041478987</v>
+        <v>0.02717252269901165</v>
       </c>
       <c r="G78" t="n">
         <v>0.4706787453629283</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02949982041478987</v>
+        <v>0.02717252269901165</v>
       </c>
       <c r="K78" t="n">
         <v>0.4706787453629283</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03564591972797053</v>
+        <v>0.03857194530717461</v>
       </c>
       <c r="M78" t="n">
         <v>0.4706787453629283</v>
       </c>
       <c r="N78" t="n">
-        <v>0.04949175861653462</v>
+        <v>0.05068912185705908</v>
       </c>
       <c r="O78" t="n">
         <v>0.4706787453629283</v>
@@ -3216,25 +3216,25 @@
       <c r="A79" s="101" t="n"/>
       <c r="D79" s="57" t="n"/>
       <c r="F79" t="n">
-        <v>0.0324566176961931</v>
+        <v>0.03042285013807632</v>
       </c>
       <c r="G79" t="n">
         <v>0.5068848026985381</v>
       </c>
       <c r="J79" t="n">
-        <v>0.0324566176961931</v>
+        <v>0.03042285013807632</v>
       </c>
       <c r="K79" t="n">
         <v>0.5068848026985381</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03713699810515664</v>
+        <v>0.04384273369955344</v>
       </c>
       <c r="M79" t="n">
         <v>0.5068848026985381</v>
       </c>
       <c r="N79" t="n">
-        <v>0.05369937180485495</v>
+        <v>0.055280725558762</v>
       </c>
       <c r="O79" t="n">
         <v>0.5068848026985381</v>
@@ -3242,25 +3242,25 @@
     </row>
     <row r="80" ht="15" customHeight="1">
       <c r="F80" t="n">
-        <v>0.03290351471184029</v>
+        <v>0.0314933628072366</v>
       </c>
       <c r="G80" t="n">
         <v>0.543090860034148</v>
       </c>
       <c r="J80" t="n">
-        <v>0.03290351471184029</v>
+        <v>0.0314933628072366</v>
       </c>
       <c r="K80" t="n">
         <v>0.543090860034148</v>
       </c>
       <c r="L80" t="n">
-        <v>0.0426119131616601</v>
+        <v>0.04781461878103768</v>
       </c>
       <c r="M80" t="n">
         <v>0.543090860034148</v>
       </c>
       <c r="N80" t="n">
-        <v>0.06069323698971783</v>
+        <v>0.05842029696946289</v>
       </c>
       <c r="O80" t="n">
         <v>0.543090860034148</v>
@@ -3268,25 +3268,25 @@
     </row>
     <row r="81" ht="15" customHeight="1">
       <c r="F81" t="n">
-        <v>0.03798193657820553</v>
+        <v>0.03431965729767421</v>
       </c>
       <c r="G81" t="n">
         <v>0.5792969173697579</v>
       </c>
       <c r="J81" t="n">
-        <v>0.03798193657820553</v>
+        <v>0.03431965729767421</v>
       </c>
       <c r="K81" t="n">
         <v>0.5792969173697579</v>
       </c>
       <c r="L81" t="n">
-        <v>0.04603675376234625</v>
+        <v>0.05020978440751581</v>
       </c>
       <c r="M81" t="n">
         <v>0.5792969173697579</v>
       </c>
       <c r="N81" t="n">
-        <v>0.06342048595277658</v>
+        <v>0.06465487569474551</v>
       </c>
       <c r="O81" t="n">
         <v>0.5792969173697579</v>
@@ -3296,25 +3296,25 @@
       <c r="A82" s="101" t="n"/>
       <c r="B82" s="101" t="n"/>
       <c r="F82" t="n">
-        <v>0.03837033740525355</v>
+        <v>0.03533953555922088</v>
       </c>
       <c r="G82" t="n">
         <v>0.6155029747053677</v>
       </c>
       <c r="J82" t="n">
-        <v>0.03837033740525355</v>
+        <v>0.03533953555922088</v>
       </c>
       <c r="K82" t="n">
         <v>0.6155029747053677</v>
       </c>
       <c r="L82" t="n">
-        <v>0.0490719899115489</v>
+        <v>0.05502482509833604</v>
       </c>
       <c r="M82" t="n">
         <v>0.6155029747053677</v>
       </c>
       <c r="N82" t="n">
-        <v>0.06811779209574403</v>
+        <v>0.06331727379441891</v>
       </c>
       <c r="O82" t="n">
         <v>0.6155029747053677</v>
@@ -3322,25 +3322,25 @@
     </row>
     <row r="83" ht="15" customHeight="1">
       <c r="F83" t="n">
-        <v>0.0405402486890314</v>
+        <v>0.0380940267523297</v>
       </c>
       <c r="G83" t="n">
         <v>0.6517090320409776</v>
       </c>
       <c r="J83" t="n">
-        <v>0.0405402486890314</v>
+        <v>0.0380940267523297</v>
       </c>
       <c r="K83" t="n">
         <v>0.6517090320409776</v>
       </c>
       <c r="L83" t="n">
-        <v>0.04861280135431886</v>
+        <v>0.05841594825002491</v>
       </c>
       <c r="M83" t="n">
         <v>0.6517090320409776</v>
       </c>
       <c r="N83" t="n">
-        <v>0.07151324850125235</v>
+        <v>0.07086745657890064</v>
       </c>
       <c r="O83" t="n">
         <v>0.6517090320409776</v>
@@ -3348,25 +3348,25 @@
     </row>
     <row r="84" ht="15" customHeight="1">
       <c r="F84" t="n">
-        <v>0.04548360181507124</v>
+        <v>0.03929635096109239</v>
       </c>
       <c r="G84" t="n">
         <v>0.6879150893765874</v>
       </c>
       <c r="J84" t="n">
-        <v>0.04548360181507124</v>
+        <v>0.03929635096109239</v>
       </c>
       <c r="K84" t="n">
         <v>0.6879150893765874</v>
       </c>
       <c r="L84" t="n">
-        <v>0.05063983901615028</v>
+        <v>0.06009999454463211</v>
       </c>
       <c r="M84" t="n">
         <v>0.6879150893765874</v>
       </c>
       <c r="N84" t="n">
-        <v>0.07778981547172897</v>
+        <v>0.07241041226879283</v>
       </c>
       <c r="O84" t="n">
         <v>0.6879150893765874</v>
@@ -3377,25 +3377,25 @@
       <c r="B85" s="57" t="n"/>
       <c r="D85" s="101" t="n"/>
       <c r="F85" t="n">
-        <v>0.04759294892657368</v>
+        <v>0.04162118130135051</v>
       </c>
       <c r="G85" t="n">
         <v>0.7241211467121973</v>
       </c>
       <c r="J85" t="n">
-        <v>0.04759294892657368</v>
+        <v>0.04162118130135051</v>
       </c>
       <c r="K85" t="n">
         <v>0.7241211467121973</v>
       </c>
       <c r="L85" t="n">
-        <v>0.05573821217195619</v>
+        <v>0.0637963288855211</v>
       </c>
       <c r="M85" t="n">
         <v>0.7241211467121973</v>
       </c>
       <c r="N85" t="n">
-        <v>0.07722070925447665</v>
+        <v>0.07434226691754647</v>
       </c>
       <c r="O85" t="n">
         <v>0.7241211467121973</v>
@@ -3406,25 +3406,25 @@
       <c r="B86" s="57" t="n"/>
       <c r="D86" s="101" t="n"/>
       <c r="F86" t="n">
-        <v>0.04724247652815596</v>
+        <v>0.04337047164858645</v>
       </c>
       <c r="G86" t="n">
         <v>0.7603272040478072</v>
       </c>
       <c r="J86" t="n">
-        <v>0.04724247652815596</v>
+        <v>0.04337047164858645</v>
       </c>
       <c r="K86" t="n">
         <v>0.7603272040478072</v>
       </c>
       <c r="L86" t="n">
-        <v>0.0577264299431662</v>
+        <v>0.06235764789360488</v>
       </c>
       <c r="M86" t="n">
         <v>0.7603272040478072</v>
       </c>
       <c r="N86" t="n">
-        <v>0.08332360402087417</v>
+        <v>0.07958773475899211</v>
       </c>
       <c r="O86" t="n">
         <v>0.7603272040478072</v>
@@ -3432,25 +3432,25 @@
     </row>
     <row r="87" ht="15" customHeight="1">
       <c r="F87" t="n">
-        <v>0.05167762493166509</v>
+        <v>0.0446820710113278</v>
       </c>
       <c r="G87" t="n">
         <v>0.7965332613834171</v>
       </c>
       <c r="J87" t="n">
-        <v>0.05167762493166509</v>
+        <v>0.0446820710113278</v>
       </c>
       <c r="K87" t="n">
         <v>0.7965332613834171</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05767769522679799</v>
+        <v>0.06943696247434791</v>
       </c>
       <c r="M87" t="n">
         <v>0.7965332613834171</v>
       </c>
       <c r="N87" t="n">
-        <v>0.08375605412433428</v>
+        <v>0.08322369433997352</v>
       </c>
       <c r="O87" t="n">
         <v>0.7965332613834171</v>
@@ -3461,25 +3461,25 @@
       <c r="C88" s="59" t="n"/>
       <c r="D88" s="59" t="n"/>
       <c r="F88" t="n">
-        <v>0.05174246739956515</v>
+        <v>0.04856528088288056</v>
       </c>
       <c r="G88" t="n">
         <v>0.832739318719027</v>
       </c>
       <c r="J88" t="n">
-        <v>0.05174246739956515</v>
+        <v>0.04856528088288056</v>
       </c>
       <c r="K88" t="n">
         <v>0.832739318719027</v>
       </c>
       <c r="L88" t="n">
-        <v>0.06012252407906056</v>
+        <v>0.067239311706738</v>
       </c>
       <c r="M88" t="n">
         <v>0.832739318719027</v>
       </c>
       <c r="N88" t="n">
-        <v>0.09020586585522512</v>
+        <v>0.0860845340981533</v>
       </c>
       <c r="O88" t="n">
         <v>0.832739318719027</v>
@@ -3489,25 +3489,25 @@
       <c r="A89" s="57" t="n"/>
       <c r="B89" s="57" t="n"/>
       <c r="F89" t="n">
-        <v>0.05374582454090265</v>
+        <v>0.0493561700438526</v>
       </c>
       <c r="G89" t="n">
         <v>0.8689453760546368</v>
       </c>
       <c r="J89" t="n">
-        <v>0.05374582454090265</v>
+        <v>0.0493561700438526</v>
       </c>
       <c r="K89" t="n">
         <v>0.8689453760546368</v>
       </c>
       <c r="L89" t="n">
-        <v>0.06250445869870168</v>
+        <v>0.07155074926456077</v>
       </c>
       <c r="M89" t="n">
         <v>0.8689453760546368</v>
       </c>
       <c r="N89" t="n">
-        <v>0.09488392468413935</v>
+        <v>0.08465695670822393</v>
       </c>
       <c r="O89" t="n">
         <v>0.8689453760546368</v>
@@ -3515,25 +3515,25 @@
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.05331240710586069</v>
+        <v>0.04827266566742516</v>
       </c>
       <c r="G90" t="n">
         <v>0.9051514333902466</v>
       </c>
       <c r="J90" t="n">
-        <v>0.05331240710586069</v>
+        <v>0.04827266566742516</v>
       </c>
       <c r="K90" t="n">
         <v>0.9051514333902466</v>
       </c>
       <c r="L90" t="n">
-        <v>0.06671888739319828</v>
+        <v>0.07557684849097676</v>
       </c>
       <c r="M90" t="n">
         <v>0.9051514333902466</v>
       </c>
       <c r="N90" t="n">
-        <v>0.09779833214660336</v>
+        <v>0.0886654803247451</v>
       </c>
       <c r="O90" t="n">
         <v>0.9051514333902466</v>
@@ -3541,25 +3541,25 @@
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.05752450780106207</v>
+        <v>0.0520081550175428</v>
       </c>
       <c r="G91" t="n">
         <v>0.9413574907258565</v>
       </c>
       <c r="J91" t="n">
-        <v>0.05752450780106207</v>
+        <v>0.0520081550175428</v>
       </c>
       <c r="K91" t="n">
         <v>0.9413574907258565</v>
       </c>
       <c r="L91" t="n">
-        <v>0.06917673214070937</v>
+        <v>0.07826287366450435</v>
       </c>
       <c r="M91" t="n">
         <v>0.9413574907258565</v>
       </c>
       <c r="N91" t="n">
-        <v>0.09417018804252267</v>
+        <v>0.09478571639083241</v>
       </c>
       <c r="O91" t="n">
         <v>0.9413574907258565</v>
@@ -3567,25 +3567,25 @@
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.05585969787465823</v>
+        <v>0.05075260107255845</v>
       </c>
       <c r="G92" t="n">
         <v>0.9775635480614664</v>
       </c>
       <c r="J92" t="n">
-        <v>0.05585969787465823</v>
+        <v>0.05075260107255845</v>
       </c>
       <c r="K92" t="n">
         <v>0.9775635480614664</v>
       </c>
       <c r="L92" t="n">
-        <v>0.06737560865871518</v>
+        <v>0.08051844196810939</v>
       </c>
       <c r="M92" t="n">
         <v>0.9775635480614664</v>
       </c>
       <c r="N92" t="n">
-        <v>0.10389717726139</v>
+        <v>0.09434501041405258</v>
       </c>
       <c r="O92" t="n">
         <v>0.9775635480614664</v>
@@ -3593,25 +3593,25 @@
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.05637618508450778</v>
+        <v>0.05356567960728617</v>
       </c>
       <c r="G93" t="n">
         <v>1.013769605397076</v>
       </c>
       <c r="J93" t="n">
-        <v>0.05637618508450778</v>
+        <v>0.05356567960728617</v>
       </c>
       <c r="K93" t="n">
         <v>1.013769605397076</v>
       </c>
       <c r="L93" t="n">
-        <v>0.06949401215799553</v>
+        <v>0.08077652316851931</v>
       </c>
       <c r="M93" t="n">
         <v>1.013769605397076</v>
       </c>
       <c r="N93" t="n">
-        <v>0.09823594989287603</v>
+        <v>0.09809255380802133</v>
       </c>
       <c r="O93" t="n">
         <v>1.013769605397076</v>
@@ -3619,25 +3619,25 @@
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.06226603772116171</v>
+        <v>0.05484723904928455</v>
       </c>
       <c r="G94" t="n">
         <v>1.049975662732686</v>
       </c>
       <c r="J94" t="n">
-        <v>0.06226603772116171</v>
+        <v>0.05484723904928455</v>
       </c>
       <c r="K94" t="n">
         <v>1.049975662732686</v>
       </c>
       <c r="L94" t="n">
-        <v>0.07205991268522928</v>
+        <v>0.08341524907733895</v>
       </c>
       <c r="M94" t="n">
         <v>1.049975662732686</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1002456985725684</v>
+        <v>0.1033513607623237</v>
       </c>
       <c r="O94" t="n">
         <v>1.049975662732686</v>
@@ -3645,25 +3645,25 @@
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.0631584690348348</v>
+        <v>0.05530715295285268</v>
       </c>
       <c r="G95" t="n">
         <v>1.086181720068296</v>
       </c>
       <c r="J95" t="n">
-        <v>0.0631584690348348</v>
+        <v>0.05530715295285268</v>
       </c>
       <c r="K95" t="n">
         <v>1.086181720068296</v>
       </c>
       <c r="L95" t="n">
-        <v>0.06978292080397164</v>
+        <v>0.08591136340165421</v>
       </c>
       <c r="M95" t="n">
         <v>1.086181720068296</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1107793137411318</v>
+        <v>0.09901509764984959</v>
       </c>
       <c r="O95" t="n">
         <v>1.086181720068296</v>
@@ -3671,25 +3671,25 @@
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.06480821027819757</v>
+        <v>0.05945587413051735</v>
       </c>
       <c r="G96" t="n">
         <v>1.122387777403906</v>
       </c>
       <c r="J96" t="n">
-        <v>0.06480821027819757</v>
+        <v>0.05945587413051735</v>
       </c>
       <c r="K96" t="n">
         <v>1.122387777403906</v>
       </c>
       <c r="L96" t="n">
-        <v>0.0734322789947453</v>
+        <v>0.08293338465403075</v>
       </c>
       <c r="M96" t="n">
         <v>1.122387777403906</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1086759513895317</v>
+        <v>0.1052699537139163</v>
       </c>
       <c r="O96" t="n">
         <v>1.122387777403906</v>
@@ -3697,25 +3697,25 @@
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.06584802656829172</v>
+        <v>0.05738297768452277</v>
       </c>
       <c r="G97" t="n">
         <v>1.158593834739516</v>
       </c>
       <c r="J97" t="n">
-        <v>0.06584802656829172</v>
+        <v>0.05738297768452277</v>
       </c>
       <c r="K97" t="n">
         <v>1.158593834739516</v>
       </c>
       <c r="L97" t="n">
-        <v>0.07439179927929737</v>
+        <v>0.08373360114144666</v>
       </c>
       <c r="M97" t="n">
         <v>1.158593834739516</v>
       </c>
       <c r="N97" t="n">
-        <v>0.109291033298966</v>
+        <v>0.1069890045108493</v>
       </c>
       <c r="O97" t="n">
         <v>1.158593834739516</v>
@@ -3723,25 +3723,25 @@
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.06385681172596057</v>
+        <v>0.06140309069582039</v>
       </c>
       <c r="G98" t="n">
         <v>1.194799892075125</v>
       </c>
       <c r="J98" t="n">
-        <v>0.06385681172596057</v>
+        <v>0.06140309069582039</v>
       </c>
       <c r="K98" t="n">
         <v>1.194799892075125</v>
       </c>
       <c r="L98" t="n">
-        <v>0.07827982385745992</v>
+        <v>0.08958927602272748</v>
       </c>
       <c r="M98" t="n">
         <v>1.194799892075125</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1108624785897995</v>
+        <v>0.1061727085855486</v>
       </c>
       <c r="O98" t="n">
         <v>1.194799892075125</v>
@@ -3749,25 +3749,25 @@
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.06380337654010787</v>
+        <v>0.05963201353538628</v>
       </c>
       <c r="G99" t="n">
         <v>1.231005949410735</v>
       </c>
       <c r="J99" t="n">
-        <v>0.06380337654010787</v>
+        <v>0.05963201353538628</v>
       </c>
       <c r="K99" t="n">
         <v>1.231005949410735</v>
       </c>
       <c r="L99" t="n">
-        <v>0.08094374953940771</v>
+        <v>0.08817887789072765</v>
       </c>
       <c r="M99" t="n">
         <v>1.231005949410735</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1113544146098825</v>
+        <v>0.106548596250589</v>
       </c>
       <c r="O99" t="n">
         <v>1.231005949410735</v>
@@ -3775,25 +3775,25 @@
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.06780025655170023</v>
+        <v>0.05979080295613771</v>
       </c>
       <c r="G100" t="n">
         <v>1.267212006746345</v>
       </c>
       <c r="J100" t="n">
-        <v>0.06780025655170023</v>
+        <v>0.05979080295613771</v>
       </c>
       <c r="K100" t="n">
         <v>1.267212006746345</v>
       </c>
       <c r="L100" t="n">
-        <v>0.08250571812830151</v>
+        <v>0.09329727247975474</v>
       </c>
       <c r="M100" t="n">
         <v>1.267212006746345</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1124478314538664</v>
+        <v>0.1105342758363512</v>
       </c>
       <c r="O100" t="n">
         <v>1.267212006746345</v>
@@ -3801,25 +3801,25 @@
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.06660700230237174</v>
+        <v>0.06230471591800481</v>
       </c>
       <c r="G101" t="n">
         <v>1.303418064081955</v>
       </c>
       <c r="J101" t="n">
-        <v>0.06660700230237174</v>
+        <v>0.06230471591800481</v>
       </c>
       <c r="K101" t="n">
         <v>1.303418064081955</v>
       </c>
       <c r="L101" t="n">
-        <v>0.08462568614499717</v>
+        <v>0.09488047730575674</v>
       </c>
       <c r="M101" t="n">
         <v>1.303418064081955</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1182521620643279</v>
+        <v>0.1099548819641836</v>
       </c>
       <c r="O101" t="n">
         <v>1.303418064081955</v>
@@ -3827,25 +3827,25 @@
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.07193227809793727</v>
+        <v>0.06358537971206342</v>
       </c>
       <c r="G102" t="n">
         <v>1.339624121417565</v>
       </c>
       <c r="J102" t="n">
-        <v>0.07193227809793727</v>
+        <v>0.06358537971206342</v>
       </c>
       <c r="K102" t="n">
         <v>1.339624121417565</v>
       </c>
       <c r="L102" t="n">
-        <v>0.08393851058217677</v>
+        <v>0.09460998187967853</v>
       </c>
       <c r="M102" t="n">
         <v>1.339624121417565</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1228318793348676</v>
+        <v>0.1194314310827576</v>
       </c>
       <c r="O102" t="n">
         <v>1.339624121417565</v>
@@ -3853,25 +3853,25 @@
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.06713868239699558</v>
+        <v>0.06193779302439473</v>
       </c>
       <c r="G103" t="n">
         <v>1.375830178753175</v>
       </c>
       <c r="J103" t="n">
-        <v>0.06713868239699558</v>
+        <v>0.06193779302439473</v>
       </c>
       <c r="K103" t="n">
         <v>1.375830178753175</v>
       </c>
       <c r="L103" t="n">
-        <v>0.08111699321295403</v>
+        <v>0.09561172758877946</v>
       </c>
       <c r="M103" t="n">
         <v>1.375830178753175</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1205036346935263</v>
+        <v>0.1214732159621093</v>
       </c>
       <c r="O103" t="n">
         <v>1.375830178753175</v>
@@ -3879,25 +3879,25 @@
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.06989145129351938</v>
+        <v>0.06233407185388184</v>
       </c>
       <c r="G104" t="n">
         <v>1.412036236088785</v>
       </c>
       <c r="J104" t="n">
-        <v>0.06989145129351938</v>
+        <v>0.06233407185388184</v>
       </c>
       <c r="K104" t="n">
         <v>1.412036236088785</v>
       </c>
       <c r="L104" t="n">
-        <v>0.08239029359339906</v>
+        <v>0.09829416462887684</v>
       </c>
       <c r="M104" t="n">
         <v>1.412036236088785</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1246685599626573</v>
+        <v>0.1185351685415211</v>
       </c>
       <c r="O104" t="n">
         <v>1.412036236088785</v>
@@ -3905,25 +3905,25 @@
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.07155867927414752</v>
+        <v>0.06556531617461944</v>
       </c>
       <c r="G105" t="n">
         <v>1.448242293424395</v>
       </c>
       <c r="J105" t="n">
-        <v>0.07155867927414752</v>
+        <v>0.06556531617461944</v>
       </c>
       <c r="K105" t="n">
         <v>1.448242293424395</v>
       </c>
       <c r="L105" t="n">
-        <v>0.08372234698360133</v>
+        <v>0.09822136469390656</v>
       </c>
       <c r="M105" t="n">
         <v>1.448242293424395</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1307270914304218</v>
+        <v>0.1156657170218468</v>
       </c>
       <c r="O105" t="n">
         <v>1.448242293424395</v>
@@ -3931,25 +3931,25 @@
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.07061444738370774</v>
+        <v>0.06868122644849774</v>
       </c>
       <c r="G106" t="n">
         <v>1.484448350760005</v>
       </c>
       <c r="J106" t="n">
-        <v>0.07061444738370774</v>
+        <v>0.06868122644849774</v>
       </c>
       <c r="K106" t="n">
         <v>1.484448350760005</v>
       </c>
       <c r="L106" t="n">
-        <v>0.0840541947032019</v>
+        <v>0.09732775818050109</v>
       </c>
       <c r="M106" t="n">
         <v>1.484448350760005</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1263872881745446</v>
+        <v>0.1248821588438376</v>
       </c>
       <c r="O106" t="n">
         <v>1.484448350760005</v>
@@ -3957,25 +3957,25 @@
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.0713297898973756</v>
+        <v>0.06670162045978187</v>
       </c>
       <c r="G107" t="n">
         <v>1.520654408095614</v>
       </c>
       <c r="J107" t="n">
-        <v>0.0713297898973756</v>
+        <v>0.06670162045978187</v>
       </c>
       <c r="K107" t="n">
         <v>1.520654408095614</v>
       </c>
       <c r="L107" t="n">
-        <v>0.08582061409176625</v>
+        <v>0.09470457563173569</v>
       </c>
       <c r="M107" t="n">
         <v>1.520654408095614</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1274633541717698</v>
+        <v>0.1202084132137213</v>
       </c>
       <c r="O107" t="n">
         <v>1.520654408095614</v>
@@ -3983,25 +3983,25 @@
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.07133177807661065</v>
+        <v>0.06780299183867274</v>
       </c>
       <c r="G108" t="n">
         <v>1.556860465431224</v>
       </c>
       <c r="J108" t="n">
-        <v>0.07133177807661065</v>
+        <v>0.06780299183867274</v>
       </c>
       <c r="K108" t="n">
         <v>1.556860465431224</v>
       </c>
       <c r="L108" t="n">
-        <v>0.08551931120465425</v>
+        <v>0.101170267277012</v>
       </c>
       <c r="M108" t="n">
         <v>1.556860465431224</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1285848232541066</v>
+        <v>0.1264595600334475</v>
       </c>
       <c r="O108" t="n">
         <v>1.556860465431224</v>
@@ -4009,25 +4009,25 @@
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.07514683299495085</v>
+        <v>0.06981941439344341</v>
       </c>
       <c r="G109" t="n">
         <v>1.593066522766834</v>
       </c>
       <c r="J109" t="n">
-        <v>0.07514683299495085</v>
+        <v>0.06981941439344341</v>
       </c>
       <c r="K109" t="n">
         <v>1.593066522766834</v>
       </c>
       <c r="L109" t="n">
-        <v>0.0920568404809964</v>
+        <v>0.1007738043278909</v>
       </c>
       <c r="M109" t="n">
         <v>1.593066522766834</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1284249310000372</v>
+        <v>0.1264504711188122</v>
       </c>
       <c r="O109" t="n">
         <v>1.593066522766834</v>
@@ -4035,25 +4035,25 @@
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.07636402978482366</v>
+        <v>0.07030746845506469</v>
       </c>
       <c r="G110" t="n">
         <v>1.629272580102444</v>
       </c>
       <c r="J110" t="n">
-        <v>0.07636402978482366</v>
+        <v>0.07030746845506469</v>
       </c>
       <c r="K110" t="n">
         <v>1.629272580102444</v>
       </c>
       <c r="L110" t="n">
-        <v>0.09338973606427731</v>
+        <v>0.1000351300349177</v>
       </c>
       <c r="M110" t="n">
         <v>1.629272580102444</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1327389298142045</v>
+        <v>0.1296756964998446</v>
       </c>
       <c r="O110" t="n">
         <v>1.629272580102444</v>
@@ -4061,25 +4061,25 @@
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.07347020916065664</v>
+        <v>0.06868712908954626</v>
       </c>
       <c r="G111" t="n">
         <v>1.665478637438054</v>
       </c>
       <c r="J111" t="n">
-        <v>0.07347020916065664</v>
+        <v>0.06868712908954626</v>
       </c>
       <c r="K111" t="n">
         <v>1.665478637438054</v>
       </c>
       <c r="L111" t="n">
-        <v>0.09033277153476006</v>
+        <v>0.1041709035909309</v>
       </c>
       <c r="M111" t="n">
         <v>1.665478637438054</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1377489408931158</v>
+        <v>0.1282195444799215</v>
       </c>
       <c r="O111" t="n">
         <v>1.665478637438054</v>
@@ -4087,25 +4087,25 @@
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.07585746365526681</v>
+        <v>0.06800039256203161</v>
       </c>
       <c r="G112" t="n">
         <v>1.701684694773664</v>
       </c>
       <c r="J112" t="n">
-        <v>0.07585746365526681</v>
+        <v>0.06800039256203161</v>
       </c>
       <c r="K112" t="n">
         <v>1.701684694773664</v>
       </c>
       <c r="L112" t="n">
-        <v>0.08897176075362764</v>
+        <v>0.09956153838128713</v>
       </c>
       <c r="M112" t="n">
         <v>1.701684694773664</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1324826992364892</v>
+        <v>0.1303791771413509</v>
       </c>
       <c r="O112" t="n">
         <v>1.701684694773664</v>
@@ -4113,25 +4113,25 @@
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.07499154840080859</v>
+        <v>0.06896624221040286</v>
       </c>
       <c r="G113" t="n">
         <v>1.737890752109274</v>
       </c>
       <c r="J113" t="n">
-        <v>0.07499154840080859</v>
+        <v>0.06896624221040286</v>
       </c>
       <c r="K113" t="n">
         <v>1.737890752109274</v>
       </c>
       <c r="L113" t="n">
-        <v>0.08850491549818772</v>
+        <v>0.1085763012893687</v>
       </c>
       <c r="M113" t="n">
         <v>1.737890752109274</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1389388210204878</v>
+        <v>0.1252100391868758</v>
       </c>
       <c r="O113" t="n">
         <v>1.737890752109274</v>
@@ -4139,25 +4139,25 @@
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.07505839049907953</v>
+        <v>0.06926527454498643</v>
       </c>
       <c r="G114" t="n">
         <v>1.774096809444883</v>
       </c>
       <c r="J114" t="n">
-        <v>0.07505839049907953</v>
+        <v>0.06926527454498643</v>
       </c>
       <c r="K114" t="n">
         <v>1.774096809444883</v>
       </c>
       <c r="L114" t="n">
-        <v>0.09578917983414589</v>
+        <v>0.1090131286658469</v>
       </c>
       <c r="M114" t="n">
         <v>1.774096809444883</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1403495938267012</v>
+        <v>0.1327236460448695</v>
       </c>
       <c r="O114" t="n">
         <v>1.774096809444883</v>
@@ -4165,25 +4165,25 @@
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.07501993544079218</v>
+        <v>0.07331045532794304</v>
       </c>
       <c r="G115" t="n">
         <v>1.810302866780493</v>
       </c>
       <c r="J115" t="n">
-        <v>0.07501993544079218</v>
+        <v>0.07331045532794304</v>
       </c>
       <c r="K115" t="n">
         <v>1.810302866780493</v>
       </c>
       <c r="L115" t="n">
-        <v>0.0958803039268664</v>
+        <v>0.1089737264805856</v>
       </c>
       <c r="M115" t="n">
         <v>1.810302866780493</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1404170402148421</v>
+        <v>0.1287695585582469</v>
       </c>
       <c r="O115" t="n">
         <v>1.810302866780493</v>
@@ -4191,25 +4191,25 @@
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.07906637975393556</v>
+        <v>0.07343995659391993</v>
       </c>
       <c r="G116" t="n">
         <v>1.846508924116103</v>
       </c>
       <c r="J116" t="n">
-        <v>0.07906637975393556</v>
+        <v>0.07343995659391993</v>
       </c>
       <c r="K116" t="n">
         <v>1.846508924116103</v>
       </c>
       <c r="L116" t="n">
-        <v>0.09385972316990239</v>
+        <v>0.1035138489735242</v>
       </c>
       <c r="M116" t="n">
         <v>1.846508924116103</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1423102883291806</v>
+        <v>0.1369756017005234</v>
       </c>
       <c r="O116" t="n">
         <v>1.846508924116103</v>
@@ -4217,25 +4217,25 @@
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.07932018694612343</v>
+        <v>0.07444406061299629</v>
       </c>
       <c r="G117" t="n">
         <v>1.882714981451713</v>
       </c>
       <c r="J117" t="n">
-        <v>0.07932018694612343</v>
+        <v>0.07444406061299629</v>
       </c>
       <c r="K117" t="n">
         <v>1.882714981451713</v>
       </c>
       <c r="L117" t="n">
-        <v>0.09666802551459691</v>
+        <v>0.1115080363848573</v>
       </c>
       <c r="M117" t="n">
         <v>1.882714981451713</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1332218870649123</v>
+        <v>0.1302868707234862</v>
       </c>
       <c r="O117" t="n">
         <v>1.882714981451713</v>
@@ -4243,25 +4243,25 @@
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.08310067234487035</v>
+        <v>0.07205900183998878</v>
       </c>
       <c r="G118" t="n">
         <v>1.918921038787323</v>
       </c>
       <c r="J118" t="n">
-        <v>0.08310067234487035</v>
+        <v>0.07205900183998878</v>
       </c>
       <c r="K118" t="n">
         <v>1.918921038787323</v>
       </c>
       <c r="L118" t="n">
-        <v>0.09075654241556867</v>
+        <v>0.1094350089770589</v>
       </c>
       <c r="M118" t="n">
         <v>1.918921038787323</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1389900458782121</v>
+        <v>0.1387983965233751</v>
       </c>
       <c r="O118" t="n">
         <v>1.918921038787323</v>
@@ -4269,25 +4269,25 @@
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.08278428494452755</v>
+        <v>0.07273916067961315</v>
       </c>
       <c r="G119" t="n">
         <v>1.955127096122933</v>
       </c>
       <c r="J119" t="n">
-        <v>0.08278428494452755</v>
+        <v>0.07273916067961315</v>
       </c>
       <c r="K119" t="n">
         <v>1.955127096122933</v>
       </c>
       <c r="L119" t="n">
-        <v>0.09684396317937999</v>
+        <v>0.1107277211721617</v>
       </c>
       <c r="M119" t="n">
         <v>1.955127096122933</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1453074953204648</v>
+        <v>0.1379815263016815</v>
       </c>
       <c r="O119" t="n">
         <v>1.955127096122933</v>
@@ -4295,25 +4295,25 @@
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.07940046900920084</v>
+        <v>0.07631525377419197</v>
       </c>
       <c r="G120" t="n">
         <v>1.991333153458543</v>
       </c>
       <c r="J120" t="n">
-        <v>0.07940046900920084</v>
+        <v>0.07631525377419197</v>
       </c>
       <c r="K120" t="n">
         <v>1.991333153458543</v>
       </c>
       <c r="L120" t="n">
-        <v>0.09276278464288762</v>
+        <v>0.1095613112835751</v>
       </c>
       <c r="M120" t="n">
         <v>1.991333153458543</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1469885270349016</v>
+        <v>0.1299638986973949</v>
       </c>
       <c r="O120" t="n">
         <v>1.991333153458543</v>
@@ -4321,25 +4321,25 @@
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.08263101411201004</v>
+        <v>0.07712850520348408</v>
       </c>
       <c r="G121" t="n">
         <v>2.027539210794152</v>
       </c>
       <c r="J121" t="n">
-        <v>0.08263101411201004</v>
+        <v>0.07712850520348408</v>
       </c>
       <c r="K121" t="n">
         <v>2.027539210794152</v>
       </c>
       <c r="L121" t="n">
-        <v>0.09750839828201853</v>
+        <v>0.1111166448577401</v>
       </c>
       <c r="M121" t="n">
         <v>2.027539210794152</v>
       </c>
       <c r="N121" t="n">
-        <v>0.137278110235335</v>
+        <v>0.1364532613861105</v>
       </c>
       <c r="O121" t="n">
         <v>2.027539210794152</v>
@@ -4347,25 +4347,25 @@
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.08465997051930162</v>
+        <v>0.0734268992472021</v>
       </c>
       <c r="G122" t="n">
         <v>2.063745268129762</v>
       </c>
       <c r="J122" t="n">
-        <v>0.08465997051930162</v>
+        <v>0.0734268992472021</v>
       </c>
       <c r="K122" t="n">
         <v>2.063745268129762</v>
       </c>
       <c r="L122" t="n">
-        <v>0.09847600365135858</v>
+        <v>0.1137951012003753</v>
       </c>
       <c r="M122" t="n">
         <v>2.063745268129762</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1475842606959413</v>
+        <v>0.1423124100198222</v>
       </c>
       <c r="O122" t="n">
         <v>2.063745268129762</v>
@@ -4373,25 +4373,25 @@
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.0782322668731171</v>
+        <v>0.07352248267789205</v>
       </c>
       <c r="G123" t="n">
         <v>2.099951325465372</v>
       </c>
       <c r="J123" t="n">
-        <v>0.0782322668731171</v>
+        <v>0.07352248267789205</v>
       </c>
       <c r="K123" t="n">
         <v>2.099951325465372</v>
       </c>
       <c r="L123" t="n">
-        <v>0.09443886712930114</v>
+        <v>0.1108763197031442</v>
       </c>
       <c r="M123" t="n">
         <v>2.099951325465372</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1381028308872289</v>
+        <v>0.14091533964052</v>
       </c>
       <c r="O123" t="n">
         <v>2.099951325465372</v>
@@ -4399,25 +4399,25 @@
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.08228559693392684</v>
+        <v>0.07394333596690993</v>
       </c>
       <c r="G124" t="n">
         <v>2.136157382800982</v>
       </c>
       <c r="J124" t="n">
-        <v>0.08228559693392684</v>
+        <v>0.07394333596690993</v>
       </c>
       <c r="K124" t="n">
         <v>2.136157382800982</v>
       </c>
       <c r="L124" t="n">
-        <v>0.09379778817190822</v>
+        <v>0.1076043898966309</v>
       </c>
       <c r="M124" t="n">
         <v>2.136157382800982</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1409680711336349</v>
+        <v>0.1350756438905265</v>
       </c>
       <c r="O124" t="n">
         <v>2.136157382800982</v>
@@ -4425,25 +4425,25 @@
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.08495562570321789</v>
+        <v>0.07747439751140314</v>
       </c>
       <c r="G125" t="n">
         <v>2.172363440136592</v>
       </c>
       <c r="J125" t="n">
-        <v>0.08495562570321789</v>
+        <v>0.07747439751140314</v>
       </c>
       <c r="K125" t="n">
         <v>2.172363440136592</v>
       </c>
       <c r="L125" t="n">
-        <v>0.0968872058602796</v>
+        <v>0.1090540030648809</v>
       </c>
       <c r="M125" t="n">
         <v>2.172363440136592</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1469433865073939</v>
+        <v>0.1379101015141561</v>
       </c>
       <c r="O125" t="n">
         <v>2.172363440136592</v>
@@ -4451,25 +4451,25 @@
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.08396088097389053</v>
+        <v>0.07439150482540205</v>
       </c>
       <c r="G126" t="n">
         <v>2.208569497472202</v>
       </c>
       <c r="J126" t="n">
-        <v>0.08396088097389053</v>
+        <v>0.07439150482540205</v>
       </c>
       <c r="K126" t="n">
         <v>2.208569497472202</v>
       </c>
       <c r="L126" t="n">
-        <v>0.0941158585004527</v>
+        <v>0.1090499839964543</v>
       </c>
       <c r="M126" t="n">
         <v>2.208569497472202</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1472419377705016</v>
+        <v>0.143280583950671</v>
       </c>
       <c r="O126" t="n">
         <v>2.208569497472202</v>
@@ -4477,25 +4477,25 @@
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.07909998175643004</v>
+        <v>0.07779596350876916</v>
       </c>
       <c r="G127" t="n">
         <v>2.244775554807812</v>
       </c>
       <c r="J127" t="n">
-        <v>0.07909998175643004</v>
+        <v>0.07779596350876916</v>
       </c>
       <c r="K127" t="n">
         <v>2.244775554807812</v>
       </c>
       <c r="L127" t="n">
-        <v>0.09600879864198575</v>
+        <v>0.114193321656317</v>
       </c>
       <c r="M127" t="n">
         <v>2.244775554807812</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1399763104310215</v>
+        <v>0.1354288952142578</v>
       </c>
       <c r="O127" t="n">
         <v>2.244775554807812</v>
@@ -4503,25 +4503,25 @@
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.08248693519093275</v>
+        <v>0.07546884283045709</v>
       </c>
       <c r="G128" t="n">
         <v>2.280981612143421</v>
       </c>
       <c r="J128" t="n">
-        <v>0.08248693519093275</v>
+        <v>0.07546884283045709</v>
       </c>
       <c r="K128" t="n">
         <v>2.280981612143421</v>
       </c>
       <c r="L128" t="n">
-        <v>0.09830070034024058</v>
+        <v>0.1117304027863991</v>
       </c>
       <c r="M128" t="n">
         <v>2.280981612143421</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1461256941251526</v>
+        <v>0.1384738703818655</v>
       </c>
       <c r="O128" t="n">
         <v>2.280981612143421</v>
@@ -4529,25 +4529,25 @@
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.08395520262528997</v>
+        <v>0.07598693519093275</v>
       </c>
       <c r="G129" t="n">
         <v>2.317187669479031</v>
       </c>
       <c r="J129" t="n">
-        <v>0.08395520262528997</v>
+        <v>0.07598693519093275</v>
       </c>
       <c r="K129" t="n">
         <v>2.317187669479031</v>
       </c>
       <c r="L129" t="n">
-        <v>0.09873040278639912</v>
+        <v>0.1128812258546581</v>
       </c>
       <c r="M129" t="n">
         <v>2.317187669479031</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1449738703818655</v>
+        <v>0.1374768584905346</v>
       </c>
       <c r="O129" t="n">
         <v>2.317187669479031</v>
@@ -4555,25 +4555,25 @@
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.08564144552129185</v>
+        <v>0.07878876407587163</v>
       </c>
       <c r="G130" t="n">
         <v>2.353393726814641</v>
       </c>
       <c r="J130" t="n">
-        <v>0.08564144552129185</v>
+        <v>0.07878876407587163</v>
       </c>
       <c r="K130" t="n">
         <v>2.353393726814641</v>
       </c>
       <c r="L130" t="n">
-        <v>0.0998445605342527</v>
+        <v>0.1155535485377419</v>
       </c>
       <c r="M130" t="n">
         <v>2.353393726814641</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1445972491230004</v>
+        <v>0.1407213162997582</v>
       </c>
       <c r="O130" t="n">
         <v>2.353393726814641</v>
@@ -4581,25 +4581,25 @@
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.08170203133324572</v>
+        <v>0.07354421935999349</v>
       </c>
       <c r="G131" t="n">
         <v>2.389599784150251</v>
       </c>
       <c r="J131" t="n">
-        <v>0.08170203133324572</v>
+        <v>0.07354421935999349</v>
       </c>
       <c r="K131" t="n">
         <v>2.389599784150251</v>
       </c>
       <c r="L131" t="n">
-        <v>0.09927367639806182</v>
+        <v>0.1094684533870581</v>
       </c>
       <c r="M131" t="n">
         <v>2.389599784150251</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1415183028315286</v>
+        <v>0.135086392724571</v>
       </c>
       <c r="O131" t="n">
         <v>2.389599784150251</v>
@@ -4607,25 +4607,25 @@
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.08300787214248515</v>
+        <v>0.07875138257483681</v>
       </c>
       <c r="G132" t="n">
         <v>2.425805841485861</v>
       </c>
       <c r="J132" t="n">
-        <v>0.08300787214248515</v>
+        <v>0.07875138257483681</v>
       </c>
       <c r="K132" t="n">
         <v>2.425805841485861</v>
       </c>
       <c r="L132" t="n">
-        <v>0.0961732677128332</v>
+        <v>0.113899089127388</v>
       </c>
       <c r="M132" t="n">
         <v>2.425805841485861</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1508471537832613</v>
+        <v>0.1366478416987409</v>
       </c>
       <c r="O132" t="n">
         <v>2.425805841485861</v>
@@ -4633,25 +4633,25 @@
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.07917026374838988</v>
+        <v>0.07374983081814607</v>
       </c>
       <c r="G133" t="n">
         <v>2.462011898821471</v>
       </c>
       <c r="J133" t="n">
-        <v>0.07917026374838988</v>
+        <v>0.07374983081814607</v>
       </c>
       <c r="K133" t="n">
         <v>2.462011898821471</v>
       </c>
       <c r="L133" t="n">
-        <v>0.09862977627385863</v>
+        <v>0.115628041315966</v>
       </c>
       <c r="M133" t="n">
         <v>2.462011898821471</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1434635192428406</v>
+        <v>0.1427847184707175</v>
       </c>
       <c r="O133" t="n">
         <v>2.462011898821471</v>
@@ -4659,25 +4659,25 @@
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.08606266857532191</v>
+        <v>0.07761913150457453</v>
       </c>
       <c r="G134" t="n">
         <v>2.498217956157081</v>
       </c>
       <c r="J134" t="n">
-        <v>0.08606266857532191</v>
+        <v>0.07761913150457453</v>
       </c>
       <c r="K134" t="n">
         <v>2.498217956157081</v>
       </c>
       <c r="L134" t="n">
-        <v>0.1013703221477084</v>
+        <v>0.1087522930540519</v>
       </c>
       <c r="M134" t="n">
         <v>2.498217956157081</v>
       </c>
       <c r="N134" t="n">
-        <v>0.146707680925136</v>
+        <v>0.1416830449129171</v>
       </c>
       <c r="O134" t="n">
         <v>2.498217956157081</v>
@@ -4685,25 +4685,25 @@
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.08281347850219609</v>
+        <v>0.07587020980575608</v>
       </c>
       <c r="G135" t="n">
         <v>2.534424013492691</v>
       </c>
       <c r="J135" t="n">
-        <v>0.08281347850219609</v>
+        <v>0.07587020980575608</v>
       </c>
       <c r="K135" t="n">
         <v>2.534424013492691</v>
       </c>
       <c r="L135" t="n">
-        <v>0.09726302085583917</v>
+        <v>0.1125886253600445</v>
       </c>
       <c r="M135" t="n">
         <v>2.534424013492691</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1479312585169865</v>
+        <v>0.1411071296600907</v>
       </c>
       <c r="O135" t="n">
         <v>2.534424013492691</v>
@@ -4711,25 +4711,25 @@
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.08279508823226024</v>
+        <v>0.074911695667401</v>
       </c>
       <c r="G136" t="n">
         <v>2.570630070828301</v>
       </c>
       <c r="J136" t="n">
-        <v>0.08279508823226024</v>
+        <v>0.074911695667401</v>
       </c>
       <c r="K136" t="n">
         <v>2.570630070828301</v>
       </c>
       <c r="L136" t="n">
-        <v>0.1002613944608602</v>
+        <v>0.1067675359163108</v>
       </c>
       <c r="M136" t="n">
         <v>2.570630070828301</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1478443020929336</v>
+        <v>0.1377713063212004</v>
       </c>
       <c r="O136" t="n">
         <v>2.570630070828301</v>
@@ -4737,25 +4737,25 @@
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.08387222785929294</v>
+        <v>0.08054567381321556</v>
       </c>
       <c r="G137" t="n">
         <v>2.606836128163911</v>
       </c>
       <c r="J137" t="n">
-        <v>0.08387222785929294</v>
+        <v>0.08054567381321556</v>
       </c>
       <c r="K137" t="n">
         <v>2.606836128163911</v>
       </c>
       <c r="L137" t="n">
-        <v>0.1028038857169171</v>
+        <v>0.1057810035216183</v>
       </c>
       <c r="M137" t="n">
         <v>2.606836128163911</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1437392520948463</v>
+        <v>0.1429538779123177</v>
       </c>
       <c r="O137" t="n">
         <v>2.606836128163911</v>
@@ -4763,25 +4763,25 @@
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.08573877797242928</v>
+        <v>0.07663754267405044</v>
       </c>
       <c r="G138" t="n">
         <v>2.64304218549952</v>
       </c>
       <c r="J138" t="n">
-        <v>0.08573877797242928</v>
+        <v>0.07663754267405044</v>
       </c>
       <c r="K138" t="n">
         <v>2.64304218549952</v>
       </c>
       <c r="L138" t="n">
-        <v>0.1040639281533306</v>
+        <v>0.1072728061177866</v>
       </c>
       <c r="M138" t="n">
         <v>2.64304218549952</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1521157325531833</v>
+        <v>0.1371731122533313</v>
       </c>
       <c r="O138" t="n">
         <v>2.64304218549952</v>
@@ -4789,25 +4789,25 @@
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.08242456375745387</v>
+        <v>0.07868353840028749</v>
       </c>
       <c r="G139" t="n">
         <v>2.67924824283513</v>
       </c>
       <c r="J139" t="n">
-        <v>0.08242456375745387</v>
+        <v>0.07868353840028749</v>
       </c>
       <c r="K139" t="n">
         <v>2.67924824283513</v>
       </c>
       <c r="L139" t="n">
-        <v>0.09907521266403226</v>
+        <v>0.1098862719186004</v>
       </c>
       <c r="M139" t="n">
         <v>2.67924824283513</v>
       </c>
       <c r="N139" t="n">
-        <v>0.148964894491544</v>
+        <v>0.134931939851655</v>
       </c>
       <c r="O139" t="n">
         <v>2.67924824283513</v>
@@ -4815,25 +4815,25 @@
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.08162087750370356</v>
+        <v>0.07632313025403253</v>
       </c>
       <c r="G140" t="n">
         <v>2.71545430017074</v>
       </c>
       <c r="J140" t="n">
-        <v>0.08162087750370356</v>
+        <v>0.07632313025403253</v>
       </c>
       <c r="K140" t="n">
         <v>2.71545430017074</v>
       </c>
       <c r="L140" t="n">
-        <v>0.1000692414550127</v>
+        <v>0.1101154224845255</v>
       </c>
       <c r="M140" t="n">
         <v>2.71545430017074</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1476588887710046</v>
+        <v>0.1336219031217019</v>
       </c>
       <c r="O140" t="n">
         <v>2.71545430017074</v>
@@ -4841,25 +4841,25 @@
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.0832641890853399</v>
+        <v>0.08082781609735416</v>
       </c>
       <c r="G141" t="n">
         <v>2.75166035750635</v>
       </c>
       <c r="J141" t="n">
-        <v>0.0832641890853399</v>
+        <v>0.08082781609735416</v>
       </c>
       <c r="K141" t="n">
         <v>2.75166035750635</v>
       </c>
       <c r="L141" t="n">
-        <v>0.0995666182577762</v>
+        <v>0.1112341694596348</v>
       </c>
       <c r="M141" t="n">
         <v>2.75166035750635</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1502391055528366</v>
+        <v>0.1362364436481837</v>
       </c>
       <c r="O141" t="n">
         <v>2.75166035750635</v>
@@ -4867,25 +4867,25 @@
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.08578410179158037</v>
+        <v>0.0802303614086666</v>
       </c>
       <c r="G142" t="n">
         <v>2.78786641484196</v>
       </c>
       <c r="J142" t="n">
-        <v>0.08578410179158037</v>
+        <v>0.0802303614086666</v>
       </c>
       <c r="K142" t="n">
         <v>2.78786641484196</v>
       </c>
       <c r="L142" t="n">
-        <v>0.09937936436978625</v>
+        <v>0.1124035105452853</v>
       </c>
       <c r="M142" t="n">
         <v>2.78786641484196</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1485485970164008</v>
+        <v>0.1407321986073713</v>
       </c>
       <c r="O142" t="n">
         <v>2.78786641484196</v>
@@ -4893,25 +4893,25 @@
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.0851218868785763</v>
+        <v>0.07483773862547273</v>
       </c>
       <c r="G143" t="n">
         <v>2.82407247217757</v>
       </c>
       <c r="J143" t="n">
-        <v>0.0851218868785763</v>
+        <v>0.07483773862547273</v>
       </c>
       <c r="K143" t="n">
         <v>2.82407247217757</v>
       </c>
       <c r="L143" t="n">
-        <v>0.1008951158380381</v>
+        <v>0.1034306646228274</v>
       </c>
       <c r="M143" t="n">
         <v>2.82407247217757</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1410969794953362</v>
+        <v>0.1392353385616101</v>
       </c>
       <c r="O143" t="n">
         <v>2.82407247217757</v>
@@ -4919,25 +4919,25 @@
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.07903342346218833</v>
+        <v>0.0777112937740182</v>
       </c>
       <c r="G144" t="n">
         <v>2.86027852951318</v>
       </c>
       <c r="J144" t="n">
-        <v>0.07903342346218833</v>
+        <v>0.0777112937740182</v>
       </c>
       <c r="K144" t="n">
         <v>2.86027852951318</v>
       </c>
       <c r="L144" t="n">
-        <v>0.1053365250591428</v>
+        <v>0.1043684606398407</v>
       </c>
       <c r="M144" t="n">
         <v>2.86027852951318</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1495164458706337</v>
+        <v>0.1402426389832815</v>
       </c>
       <c r="O144" t="n">
         <v>2.86027852951318</v>
@@ -4945,25 +4945,25 @@
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.0786672628233101</v>
+        <v>0.07734257253023509</v>
       </c>
       <c r="G145" t="n">
         <v>2.896484586848789</v>
       </c>
       <c r="J145" t="n">
-        <v>0.0786672628233101</v>
+        <v>0.07734257253023509</v>
       </c>
       <c r="K145" t="n">
         <v>2.896484586848789</v>
       </c>
       <c r="L145" t="n">
-        <v>0.1000111073364746</v>
+        <v>0.1076941276968286</v>
       </c>
       <c r="M145" t="n">
         <v>2.896484586848789</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1467374899128492</v>
+        <v>0.1369366950761249</v>
       </c>
       <c r="O145" t="n">
         <v>2.896484586848789</v>
@@ -4971,25 +4971,25 @@
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.08384161112122408</v>
+        <v>0.07478014902970362</v>
       </c>
       <c r="G146" t="n">
         <v>2.932690644184399</v>
       </c>
       <c r="J146" t="n">
-        <v>0.08384161112122408</v>
+        <v>0.07478014902970362</v>
       </c>
       <c r="K146" t="n">
         <v>2.932690644184399</v>
       </c>
       <c r="L146" t="n">
-        <v>0.09932782292852291</v>
+        <v>0.107860169764573</v>
       </c>
       <c r="M146" t="n">
         <v>2.932690644184399</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1407894509249513</v>
+        <v>0.1369958207390441</v>
       </c>
       <c r="O146" t="n">
         <v>2.932690644184399</v>
@@ -4997,25 +4997,25 @@
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.08152856057989698</v>
+        <v>0.07801409084179378</v>
       </c>
       <c r="G147" t="n">
         <v>2.968896701520009</v>
       </c>
       <c r="J147" t="n">
-        <v>0.08152856057989698</v>
+        <v>0.07801409084179378</v>
       </c>
       <c r="K147" t="n">
         <v>2.968896701520009</v>
       </c>
       <c r="L147" t="n">
-        <v>0.09979469296246855</v>
+        <v>0.102268038825638</v>
       </c>
       <c r="M147" t="n">
         <v>2.968896701520009</v>
       </c>
       <c r="N147" t="n">
-        <v>0.140336724904323</v>
+        <v>0.138689910921862</v>
       </c>
       <c r="O147" t="n">
         <v>2.968896701520009</v>
@@ -5023,25 +5023,25 @@
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.08117066769364613</v>
+        <v>0.07975871432499908</v>
       </c>
       <c r="G148" t="n">
         <v>3.005102758855619</v>
       </c>
       <c r="J148" t="n">
-        <v>0.08117066769364613</v>
+        <v>0.07975871432499908</v>
       </c>
       <c r="K148" t="n">
         <v>3.005102758855619</v>
       </c>
       <c r="L148" t="n">
-        <v>0.103807594640831</v>
+        <v>0.1077976426277285</v>
       </c>
       <c r="M148" t="n">
         <v>3.005102758855619</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1429020247589642</v>
+        <v>0.1423543131646731</v>
       </c>
       <c r="O148" t="n">
         <v>3.005102758855619</v>
@@ -5049,25 +5049,25 @@
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.07984591234175785</v>
+        <v>0.07740227193182256</v>
       </c>
       <c r="G149" t="n">
         <v>3.041308816191229</v>
       </c>
       <c r="J149" t="n">
-        <v>0.07984591234175785</v>
+        <v>0.07740227193182256</v>
       </c>
       <c r="K149" t="n">
         <v>3.041308816191229</v>
       </c>
       <c r="L149" t="n">
-        <v>0.1040599969283282</v>
+        <v>0.1016558814742442</v>
       </c>
       <c r="M149" t="n">
         <v>3.041308816191229</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1531134559850986</v>
+        <v>0.132895971938388</v>
       </c>
       <c r="O149" t="n">
         <v>3.041308816191229</v>
@@ -5075,25 +5075,25 @@
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.08379570681608134</v>
+        <v>0.07971630488477142</v>
       </c>
       <c r="G150" t="n">
         <v>3.077514873526839</v>
       </c>
       <c r="J150" t="n">
-        <v>0.08379570681608134</v>
+        <v>0.07971630488477142</v>
       </c>
       <c r="K150" t="n">
         <v>3.077514873526839</v>
       </c>
       <c r="L150" t="n">
-        <v>0.1031007102559548</v>
+        <v>0.1009391211735517</v>
       </c>
       <c r="M150" t="n">
         <v>3.077514873526839</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1440137900414296</v>
+        <v>0.1346043236229132</v>
       </c>
       <c r="O150" t="n">
         <v>3.077514873526839</v>
@@ -5101,25 +5101,25 @@
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.0781273875427707</v>
+        <v>0.07601620482544287</v>
       </c>
       <c r="G151" t="n">
         <v>3.113720930862448</v>
       </c>
       <c r="J151" t="n">
-        <v>0.0781273875427707</v>
+        <v>0.07601620482544287</v>
       </c>
       <c r="K151" t="n">
         <v>3.113720930862448</v>
       </c>
       <c r="L151" t="n">
-        <v>0.1004672452363259</v>
+        <v>0.109120092068857</v>
       </c>
       <c r="M151" t="n">
         <v>3.113720930862448</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1516540739776783</v>
+        <v>0.1421870549862689</v>
       </c>
       <c r="O151" t="n">
         <v>3.113720930862448</v>
@@ -5127,25 +5127,25 @@
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.08310476481468797</v>
+        <v>0.08156706290501167</v>
       </c>
       <c r="G152" t="n">
         <v>3.149926988198058</v>
       </c>
       <c r="J152" t="n">
-        <v>0.08310476481468797</v>
+        <v>0.08156706290501167</v>
       </c>
       <c r="K152" t="n">
         <v>3.149926988198058</v>
       </c>
       <c r="L152" t="n">
-        <v>0.1027952855695314</v>
+        <v>0.1029848611140293</v>
       </c>
       <c r="M152" t="n">
         <v>3.149926988198058</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1465035359060243</v>
+        <v>0.1326370503676514</v>
       </c>
       <c r="O152" t="n">
         <v>3.149926988198058</v>
@@ -5153,25 +5153,25 @@
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.08308418398720874</v>
+        <v>0.07700674215824245</v>
       </c>
       <c r="G153" t="n">
         <v>3.186133045533668</v>
       </c>
       <c r="J153" t="n">
-        <v>0.08308418398720874</v>
+        <v>0.07700674215824245</v>
       </c>
       <c r="K153" t="n">
         <v>3.186133045533668</v>
       </c>
       <c r="L153" t="n">
-        <v>0.1026744130792696</v>
+        <v>0.100633916037713</v>
       </c>
       <c r="M153" t="n">
         <v>3.186133045533668</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1499208932529267</v>
+        <v>0.1342968894184974</v>
       </c>
       <c r="O153" t="n">
         <v>3.186133045533668</v>
@@ -5179,25 +5179,25 @@
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.08447701558495842</v>
+        <v>0.08187826887919245</v>
       </c>
       <c r="G154" t="n">
         <v>3.222339102869278</v>
       </c>
       <c r="J154" t="n">
-        <v>0.08447701558495842</v>
+        <v>0.08187826887919245</v>
       </c>
       <c r="K154" t="n">
         <v>3.222339102869278</v>
       </c>
       <c r="L154" t="n">
-        <v>0.1034437352700991</v>
+        <v>0.09961130218505632</v>
       </c>
       <c r="M154" t="n">
         <v>3.222339102869278</v>
       </c>
       <c r="N154" t="n">
-        <v>0.150883005849126</v>
+        <v>0.1413951993828867</v>
       </c>
       <c r="O154" t="n">
         <v>3.222339102869278</v>
@@ -5205,25 +5205,25 @@
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.07748338778344505</v>
+        <v>0.08103759847788168</v>
       </c>
       <c r="G155" t="n">
         <v>3.258545160204888</v>
       </c>
       <c r="J155" t="n">
-        <v>0.07748338778344505</v>
+        <v>0.08103759847788168</v>
       </c>
       <c r="K155" t="n">
         <v>3.258545160204888</v>
       </c>
       <c r="L155" t="n">
-        <v>0.1013497275336743</v>
+        <v>0.1050077961068268</v>
       </c>
       <c r="M155" t="n">
         <v>3.258545160204888</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1470816927757753</v>
+        <v>0.1383136804576594</v>
       </c>
       <c r="O155" t="n">
         <v>3.258545160204888</v>
@@ -5231,25 +5231,25 @@
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.07897913491282453</v>
+        <v>0.07557557229677936</v>
       </c>
       <c r="G156" t="n">
         <v>3.294751217540498</v>
       </c>
       <c r="J156" t="n">
-        <v>0.07897913491282453</v>
+        <v>0.07557557229677936</v>
       </c>
       <c r="K156" t="n">
         <v>3.294751217540498</v>
       </c>
       <c r="L156" t="n">
-        <v>0.106141592351671</v>
+        <v>0.1071507377490628</v>
       </c>
       <c r="M156" t="n">
         <v>3.294751217540498</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1488712810511454</v>
+        <v>0.1392280571775292</v>
       </c>
       <c r="O156" t="n">
         <v>3.294751217540498</v>
@@ -5257,25 +5257,25 @@
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.08422170282318797</v>
+        <v>0.07836349730586818</v>
       </c>
       <c r="G157" t="n">
         <v>3.330957274876108</v>
       </c>
       <c r="J157" t="n">
-        <v>0.08422170282318797</v>
+        <v>0.07836349730586818</v>
       </c>
       <c r="K157" t="n">
         <v>3.330957274876108</v>
       </c>
       <c r="L157" t="n">
-        <v>0.1019691485746196</v>
+        <v>0.1036311278834988</v>
       </c>
       <c r="M157" t="n">
         <v>3.330957274876108</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1503080227775688</v>
+        <v>0.1336922913408067</v>
       </c>
       <c r="O157" t="n">
         <v>3.330957274876108</v>
@@ -5283,25 +5283,25 @@
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.08057713942386895</v>
+        <v>0.08178036331977213</v>
       </c>
       <c r="G158" t="n">
         <v>3.367163332211717</v>
       </c>
       <c r="J158" t="n">
-        <v>0.08057713942386895</v>
+        <v>0.08178036331977213</v>
       </c>
       <c r="K158" t="n">
         <v>3.367163332211717</v>
       </c>
       <c r="L158" t="n">
-        <v>0.1047562052149471</v>
+        <v>0.1003173005851554</v>
       </c>
       <c r="M158" t="n">
         <v>3.367163332211717</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1459729672627906</v>
+        <v>0.1401390905489402</v>
       </c>
       <c r="O158" t="n">
         <v>3.367163332211717</v>
@@ -5309,25 +5309,25 @@
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.07971240633077811</v>
+        <v>0.07907677577871774</v>
       </c>
       <c r="G159" t="n">
         <v>3.403369389547327</v>
       </c>
       <c r="J159" t="n">
-        <v>0.07971240633077811</v>
+        <v>0.07907677577871774</v>
       </c>
       <c r="K159" t="n">
         <v>3.403369389547327</v>
       </c>
       <c r="L159" t="n">
-        <v>0.1071531260599103</v>
+        <v>0.09869572974607721</v>
       </c>
       <c r="M159" t="n">
         <v>3.403369389547327</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1438840976102909</v>
+        <v>0.1402204628044573</v>
       </c>
       <c r="O159" t="n">
         <v>3.403369389547327</v>
@@ -5335,25 +5335,25 @@
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.08305342136688429</v>
+        <v>0.0797777787671151</v>
       </c>
       <c r="G160" t="n">
         <v>3.439575446882937</v>
       </c>
       <c r="J160" t="n">
-        <v>0.08305342136688429</v>
+        <v>0.0797777787671151</v>
       </c>
       <c r="K160" t="n">
         <v>3.439575446882937</v>
       </c>
       <c r="L160" t="n">
-        <v>0.1019837673308138</v>
+        <v>0.1017987982570178</v>
       </c>
       <c r="M160" t="n">
         <v>3.439575446882937</v>
       </c>
       <c r="N160" t="n">
-        <v>0.146456391524327</v>
+        <v>0.1366521239193487</v>
       </c>
       <c r="O160" t="n">
         <v>3.439575446882937</v>
@@ -5361,25 +5361,25 @@
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.08186461943268805</v>
+        <v>0.07753358726910461</v>
       </c>
       <c r="G161" t="n">
         <v>3.475781504218547</v>
       </c>
       <c r="J161" t="n">
-        <v>0.08186461943268805</v>
+        <v>0.07753358726910461</v>
       </c>
       <c r="K161" t="n">
         <v>3.475781504218547</v>
       </c>
       <c r="L161" t="n">
-        <v>0.1048353202204031</v>
+        <v>0.1063076637724866</v>
       </c>
       <c r="M161" t="n">
         <v>3.475781504218547</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1525021058412861</v>
+        <v>0.1337813860237756</v>
       </c>
       <c r="O161" t="n">
         <v>3.475781504218547</v>
@@ -5387,25 +5387,25 @@
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.08066401154498501</v>
+        <v>0.07621786902901263</v>
       </c>
       <c r="G162" t="n">
         <v>3.511987561554157</v>
       </c>
       <c r="J162" t="n">
-        <v>0.08066401154498501</v>
+        <v>0.07621786902901263</v>
       </c>
       <c r="K162" t="n">
         <v>3.511987561554157</v>
       </c>
       <c r="L162" t="n">
-        <v>0.1067914323547671</v>
+        <v>0.1045594238757439</v>
       </c>
       <c r="M162" t="n">
         <v>3.511987561554157</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1501352719070599</v>
+        <v>0.1322371295645321</v>
       </c>
       <c r="O162" t="n">
         <v>3.511987561554157</v>
@@ -5413,25 +5413,25 @@
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.07912334909798609</v>
+        <v>0.07588541352075802</v>
       </c>
       <c r="G163" t="n">
         <v>3.548193618889767</v>
       </c>
       <c r="J163" t="n">
-        <v>0.07912334909798609</v>
+        <v>0.07588541352075802</v>
       </c>
       <c r="K163" t="n">
         <v>3.548193618889767</v>
       </c>
       <c r="L163" t="n">
-        <v>0.09857811197501933</v>
+        <v>0.1081518791128706</v>
       </c>
       <c r="M163" t="n">
         <v>3.548193618889767</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1498559043276203</v>
+        <v>0.137198900687772</v>
       </c>
       <c r="O163" t="n">
         <v>3.548193618889767</v>
@@ -5439,25 +5439,25 @@
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.08227443627237752</v>
+        <v>0.07607416756844067</v>
       </c>
       <c r="G164" t="n">
         <v>3.584399676225377</v>
       </c>
       <c r="J164" t="n">
-        <v>0.08227443627237752</v>
+        <v>0.07607416756844067</v>
       </c>
       <c r="K164" t="n">
         <v>3.584399676225377</v>
       </c>
       <c r="L164" t="n">
-        <v>0.1070144388358825</v>
+        <v>0.1007923912116006</v>
       </c>
       <c r="M164" t="n">
         <v>3.584399676225377</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1468636753357088</v>
+        <v>0.1334505410638264</v>
       </c>
       <c r="O164" t="n">
         <v>3.584399676225377</v>
@@ -5465,25 +5465,25 @@
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.0770343498900759</v>
+        <v>0.0765962079310846</v>
       </c>
       <c r="G165" t="n">
         <v>3.620605733560986</v>
       </c>
       <c r="J165" t="n">
-        <v>0.0770343498900759</v>
+        <v>0.0765962079310846</v>
       </c>
       <c r="K165" t="n">
         <v>3.620605733560986</v>
       </c>
       <c r="L165" t="n">
-        <v>0.1003779744429937</v>
+        <v>0.1068302776970048</v>
       </c>
       <c r="M165" t="n">
         <v>3.620605733560986</v>
       </c>
       <c r="N165" t="n">
-        <v>0.150594239674465</v>
+        <v>0.1405750217406402</v>
       </c>
       <c r="O165" t="n">
         <v>3.620605733560986</v>
@@ -5491,25 +5491,25 @@
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.07742378206718611</v>
+        <v>0.07512341911228859</v>
       </c>
       <c r="G166" t="n">
         <v>3.656811790896596</v>
       </c>
       <c r="J166" t="n">
-        <v>0.07742378206718611</v>
+        <v>0.07512341911228859</v>
       </c>
       <c r="K166" t="n">
         <v>3.656811790896596</v>
       </c>
       <c r="L166" t="n">
-        <v>0.103999591898135</v>
+        <v>0.1064661234884323</v>
       </c>
       <c r="M166" t="n">
         <v>3.656811790896596</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1451439153364477</v>
+        <v>0.1374394468724106</v>
       </c>
       <c r="O166" t="n">
         <v>3.656811790896596</v>
@@ -5517,25 +5517,25 @@
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.08062310237342096</v>
+        <v>0.07630739670604299</v>
       </c>
       <c r="G167" t="n">
         <v>3.693017848232206</v>
       </c>
       <c r="J167" t="n">
-        <v>0.08062310237342096</v>
+        <v>0.07630739670604299</v>
       </c>
       <c r="K167" t="n">
         <v>3.693017848232206</v>
       </c>
       <c r="L167" t="n">
-        <v>0.1040360817661982</v>
+        <v>0.1010897211825154</v>
       </c>
       <c r="M167" t="n">
         <v>3.693017848232206</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1460335721673916</v>
+        <v>0.1294713381996026</v>
       </c>
       <c r="O167" t="n">
         <v>3.693017848232206</v>
@@ -5543,25 +5543,25 @@
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.08093525800206257</v>
+        <v>0.07458121321918892</v>
       </c>
       <c r="G168" t="n">
         <v>3.729223905567816</v>
       </c>
       <c r="J168" t="n">
-        <v>0.08093525800206257</v>
+        <v>0.07458121321918892</v>
       </c>
       <c r="K168" t="n">
         <v>3.729223905567816</v>
       </c>
       <c r="L168" t="n">
-        <v>0.1052017370700797</v>
+        <v>0.1012790755815272</v>
       </c>
       <c r="M168" t="n">
         <v>3.729223905567816</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1424733435847969</v>
+        <v>0.1383501822878562</v>
       </c>
       <c r="O168" t="n">
         <v>3.729223905567816</v>
@@ -5569,25 +5569,25 @@
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.08304952981150532</v>
+        <v>0.0763943097768577</v>
       </c>
       <c r="G169" t="n">
         <v>3.765429962903426</v>
       </c>
       <c r="J169" t="n">
-        <v>0.08304952981150532</v>
+        <v>0.0763943097768577</v>
       </c>
       <c r="K169" t="n">
         <v>3.765429962903426</v>
       </c>
       <c r="L169" t="n">
-        <v>0.09763078889760343</v>
+        <v>0.108002833477385</v>
       </c>
       <c r="M169" t="n">
         <v>3.765429962903426</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1482477863322972</v>
+        <v>0.1374744651078852</v>
       </c>
       <c r="O169" t="n">
         <v>3.765429962903426</v>
@@ -5595,25 +5595,25 @@
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.07953598729196766</v>
+        <v>0.0758508106044245</v>
       </c>
       <c r="G170" t="n">
         <v>3.801636020239036</v>
       </c>
       <c r="J170" t="n">
-        <v>0.07953598729196766</v>
+        <v>0.0758508106044245</v>
       </c>
       <c r="K170" t="n">
         <v>3.801636020239036</v>
       </c>
       <c r="L170" t="n">
-        <v>0.1017647456829998</v>
+        <v>0.1020688703079977</v>
       </c>
       <c r="M170" t="n">
         <v>3.801636020239036</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1414595183054108</v>
+        <v>0.1303090210518781</v>
       </c>
       <c r="O170" t="n">
         <v>3.801636020239036</v>
@@ -5621,25 +5621,25 @@
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.07926339473621485</v>
+        <v>0.07566465415228689</v>
       </c>
       <c r="G171" t="n">
         <v>3.837842077574646</v>
       </c>
       <c r="J171" t="n">
-        <v>0.07926339473621485</v>
+        <v>0.07566465415228689</v>
       </c>
       <c r="K171" t="n">
         <v>3.837842077574646</v>
       </c>
       <c r="L171" t="n">
-        <v>0.09726889322339569</v>
+        <v>0.1110857902471626</v>
       </c>
       <c r="M171" t="n">
         <v>3.837842077574646</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1514593910038552</v>
+        <v>0.1361930836023299</v>
       </c>
       <c r="O171" t="n">
         <v>3.837842077574646</v>
@@ -5647,25 +5647,25 @@
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.07875078149899906</v>
+        <v>0.07683865499740131</v>
       </c>
       <c r="G172" t="n">
         <v>3.874048134910256</v>
       </c>
       <c r="J172" t="n">
-        <v>0.07875078149899906</v>
+        <v>0.07683865499740131</v>
       </c>
       <c r="K172" t="n">
         <v>3.874048134910256</v>
       </c>
       <c r="L172" t="n">
-        <v>0.103794243002867</v>
+        <v>0.103089914652855</v>
       </c>
       <c r="M172" t="n">
         <v>3.874048134910256</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1474812922085643</v>
+        <v>0.1388611230627952</v>
       </c>
       <c r="O172" t="n">
         <v>3.874048134910256</v>
@@ -5673,25 +5673,25 @@
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.07958933086590481</v>
+        <v>0.07747910969974299</v>
       </c>
       <c r="G173" t="n">
         <v>3.910254192245866</v>
       </c>
       <c r="J173" t="n">
-        <v>0.07958933086590481</v>
+        <v>0.07747910969974299</v>
       </c>
       <c r="K173" t="n">
         <v>3.910254192245866</v>
       </c>
       <c r="L173" t="n">
-        <v>0.09733415639884119</v>
+        <v>0.1121777433132022</v>
       </c>
       <c r="M173" t="n">
         <v>3.910254192245866</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1515690891936489</v>
+        <v>0.1387709420675191</v>
       </c>
       <c r="O173" t="n">
         <v>3.910254192245866</v>
@@ -5699,25 +5699,25 @@
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.08231150319928401</v>
+        <v>0.0733936435128863</v>
       </c>
       <c r="G174" t="n">
         <v>3.946460249581476</v>
       </c>
       <c r="J174" t="n">
-        <v>0.08231150319928401</v>
+        <v>0.0733936435128863</v>
       </c>
       <c r="K174" t="n">
         <v>3.946460249581476</v>
       </c>
       <c r="L174" t="n">
-        <v>0.1005937742937244</v>
+        <v>0.1078083131308961</v>
       </c>
       <c r="M174" t="n">
         <v>3.946460249581476</v>
       </c>
       <c r="N174" t="n">
-        <v>0.146263226069505</v>
+        <v>0.1350036718713969</v>
       </c>
       <c r="O174" t="n">
         <v>3.946460249581476</v>
@@ -5725,25 +5725,25 @@
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.07632935823390423</v>
+        <v>0.07337492500760864</v>
       </c>
       <c r="G175" t="n">
         <v>3.982666306917085</v>
       </c>
       <c r="J175" t="n">
-        <v>0.07632935823390423</v>
+        <v>0.07337492500760864</v>
       </c>
       <c r="K175" t="n">
         <v>3.982666306917085</v>
       </c>
       <c r="L175" t="n">
-        <v>0.1043366227737145</v>
+        <v>0.1059727071570745</v>
       </c>
       <c r="M175" t="n">
         <v>3.982666306917085</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1435418045212135</v>
+        <v>0.132277810614939</v>
       </c>
       <c r="O175" t="n">
         <v>3.982666306917085</v>
@@ -5751,25 +5751,25 @@
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.07645313501948281</v>
+        <v>0.07849512625204118</v>
       </c>
       <c r="G176" t="n">
         <v>4.018872364252696</v>
       </c>
       <c r="J176" t="n">
-        <v>0.07645313501948281</v>
+        <v>0.07849512625204118</v>
       </c>
       <c r="K176" t="n">
         <v>4.018872364252696</v>
       </c>
       <c r="L176" t="n">
-        <v>0.1019682145252425</v>
+        <v>0.1094816294692122</v>
       </c>
       <c r="M176" t="n">
         <v>4.018872364252696</v>
       </c>
       <c r="N176" t="n">
-        <v>0.15054906596275</v>
+        <v>0.1396798947357014</v>
       </c>
       <c r="O176" t="n">
         <v>4.018872364252696</v>
@@ -5777,25 +5777,25 @@
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.07621704252728012</v>
+        <v>0.07644366521750677</v>
       </c>
       <c r="G177" t="n">
         <v>4.055078421588305</v>
       </c>
       <c r="J177" t="n">
-        <v>0.07621704252728012</v>
+        <v>0.07644366521750677</v>
       </c>
       <c r="K177" t="n">
         <v>4.055078421588305</v>
       </c>
       <c r="L177" t="n">
-        <v>0.09658686947156682</v>
+        <v>0.1118469270426496</v>
       </c>
       <c r="M177" t="n">
         <v>4.055078421588305</v>
       </c>
       <c r="N177" t="n">
-        <v>0.148899808932366</v>
+        <v>0.1317022769261841</v>
       </c>
       <c r="O177" t="n">
         <v>4.055078421588305</v>
@@ -5803,25 +5803,25 @@
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.08111128681569231</v>
+        <v>0.07791946137993226</v>
       </c>
       <c r="G178" t="n">
         <v>4.091284478923915</v>
       </c>
       <c r="J178" t="n">
-        <v>0.08111128681569231</v>
+        <v>0.07791946137993226</v>
       </c>
       <c r="K178" t="n">
         <v>4.091284478923915</v>
       </c>
       <c r="L178" t="n">
-        <v>0.1029620411737012</v>
+        <v>0.1116140905735351</v>
       </c>
       <c r="M178" t="n">
         <v>4.091284478923915</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1423380449767713</v>
+        <v>0.1319260705223968</v>
       </c>
       <c r="O178" t="n">
         <v>4.091284478923915</v>
@@ -5829,25 +5829,25 @@
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.08027608723509996</v>
+        <v>0.0752375445456988</v>
       </c>
       <c r="G179" t="n">
         <v>4.127490536259525</v>
       </c>
       <c r="J179" t="n">
-        <v>0.08027608723509996</v>
+        <v>0.0752375445456988</v>
       </c>
       <c r="K179" t="n">
         <v>4.127490536259525</v>
       </c>
       <c r="L179" t="n">
-        <v>0.09532574751815445</v>
+        <v>0.1143532813347081</v>
       </c>
       <c r="M179" t="n">
         <v>4.127490536259525</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1497685964467747</v>
+        <v>0.1302244249688686</v>
       </c>
       <c r="O179" t="n">
         <v>4.127490536259525</v>
@@ -5855,25 +5855,25 @@
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.07916990299810166</v>
+        <v>0.07642684801882338</v>
       </c>
       <c r="G180" t="n">
         <v>4.163696593595135</v>
       </c>
       <c r="J180" t="n">
-        <v>0.07916990299810166</v>
+        <v>0.07642684801882338</v>
       </c>
       <c r="K180" t="n">
         <v>4.163696593595135</v>
       </c>
       <c r="L180" t="n">
-        <v>0.09463030877238585</v>
+        <v>0.1092661975204786</v>
       </c>
       <c r="M180" t="n">
         <v>4.163696593595135</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1468968455617334</v>
+        <v>0.1298220218649825</v>
       </c>
       <c r="O180" t="n">
         <v>4.163696593595135</v>
@@ -5881,25 +5881,25 @@
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.08013408002042829</v>
+        <v>0.0709507641997697</v>
       </c>
       <c r="G181" t="n">
         <v>4.199902650930745</v>
       </c>
       <c r="J181" t="n">
-        <v>0.08013408002042829</v>
+        <v>0.0709507641997697</v>
       </c>
       <c r="K181" t="n">
         <v>4.199902650930745</v>
       </c>
       <c r="L181" t="n">
-        <v>0.09588965818736067</v>
+        <v>0.1078836885280423</v>
       </c>
       <c r="M181" t="n">
         <v>4.199902650930745</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1377322848651105</v>
+        <v>0.1337477127720649</v>
       </c>
       <c r="O181" t="n">
         <v>4.199902650930745</v>
@@ -5907,25 +5907,25 @@
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.08119631674321053</v>
+        <v>0.07052134973827906</v>
       </c>
       <c r="G182" t="n">
         <v>4.236108708266355</v>
       </c>
       <c r="J182" t="n">
-        <v>0.08119631674321053</v>
+        <v>0.07052134973827906</v>
       </c>
       <c r="K182" t="n">
         <v>4.236108708266355</v>
       </c>
       <c r="L182" t="n">
-        <v>0.1014078371809725</v>
+        <v>0.1132302398381282</v>
       </c>
       <c r="M182" t="n">
         <v>4.236108708266355</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1373250597814454</v>
+        <v>0.1358500626512565</v>
       </c>
       <c r="O182" t="n">
         <v>4.236108708266355</v>
@@ -5933,25 +5933,25 @@
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.07732498084717146</v>
+        <v>0.07134056894238872</v>
       </c>
       <c r="G183" t="n">
         <v>4.272314765601964</v>
       </c>
       <c r="J183" t="n">
-        <v>0.07732498084717146</v>
+        <v>0.07134056894238872</v>
       </c>
       <c r="K183" t="n">
         <v>4.272314765601964</v>
       </c>
       <c r="L183" t="n">
-        <v>0.09425419079368685</v>
+        <v>0.1087836796279094</v>
       </c>
       <c r="M183" t="n">
         <v>4.272314765601964</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1445731492089349</v>
+        <v>0.1316452394647732</v>
       </c>
       <c r="O183" t="n">
         <v>4.272314765601964</v>
@@ -5959,25 +5959,25 @@
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.07642514380981724</v>
+        <v>0.07341335737126625</v>
       </c>
       <c r="G184" t="n">
         <v>4.308520822937574</v>
       </c>
       <c r="J184" t="n">
-        <v>0.07642514380981724</v>
+        <v>0.07341335737126625</v>
       </c>
       <c r="K184" t="n">
         <v>4.308520822937574</v>
       </c>
       <c r="L184" t="n">
-        <v>0.09431478895163342</v>
+        <v>0.1070069269307097</v>
       </c>
       <c r="M184" t="n">
         <v>4.308520822937574</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1400227051866647</v>
+        <v>0.1296923473404407</v>
       </c>
       <c r="O184" t="n">
         <v>4.308520822937574</v>
@@ -5985,25 +5985,25 @@
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.07792751224410503</v>
+        <v>0.07596190874252587</v>
       </c>
       <c r="G185" t="n">
         <v>4.344726880273184</v>
       </c>
       <c r="J185" t="n">
-        <v>0.07792751224410503</v>
+        <v>0.07596190874252587</v>
       </c>
       <c r="K185" t="n">
         <v>4.344726880273184</v>
       </c>
       <c r="L185" t="n">
-        <v>0.09447374718902973</v>
+        <v>0.1069513224793027</v>
       </c>
       <c r="M185" t="n">
         <v>4.344726880273184</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1465537045664554</v>
+        <v>0.1290832406278317</v>
       </c>
       <c r="O185" t="n">
         <v>4.344726880273184</v>
@@ -6011,25 +6011,25 @@
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.07745654102753501</v>
+        <v>0.07165841712480167</v>
       </c>
       <c r="G186" t="n">
         <v>4.380932937608794</v>
       </c>
       <c r="J186" t="n">
-        <v>0.07745654102753501</v>
+        <v>0.07165841712480167</v>
       </c>
       <c r="K186" t="n">
         <v>4.380932937608794</v>
       </c>
       <c r="L186" t="n">
-        <v>0.09940468379650326</v>
+        <v>0.1099796535497632</v>
       </c>
       <c r="M186" t="n">
         <v>4.380932937608794</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1436516847001116</v>
+        <v>0.1272928600577427</v>
       </c>
       <c r="O186" t="n">
         <v>4.380932937608794</v>
@@ -6037,25 +6037,25 @@
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.07453231271860539</v>
+        <v>0.0716586246097457</v>
       </c>
       <c r="G187" t="n">
         <v>4.417138994944404</v>
       </c>
       <c r="J187" t="n">
-        <v>0.07453231271860539</v>
+        <v>0.0716586246097457</v>
       </c>
       <c r="K187" t="n">
         <v>4.417138994944404</v>
       </c>
       <c r="L187" t="n">
-        <v>0.09791453079385828</v>
+        <v>0.1078666862165404</v>
       </c>
       <c r="M187" t="n">
         <v>4.417138994944404</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1459894804693551</v>
+        <v>0.1323080831937809</v>
       </c>
       <c r="O187" t="n">
         <v>4.417138994944404</v>
@@ -6063,25 +6063,25 @@
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.0797103477138147</v>
+        <v>0.07421332273558225</v>
       </c>
       <c r="G188" t="n">
         <v>4.453345052280014</v>
       </c>
       <c r="J188" t="n">
-        <v>0.0797103477138147</v>
+        <v>0.07421332273558225</v>
       </c>
       <c r="K188" t="n">
         <v>4.453345052280014</v>
       </c>
       <c r="L188" t="n">
-        <v>0.09456458450808339</v>
+        <v>0.1125520075795339</v>
       </c>
       <c r="M188" t="n">
         <v>4.453345052280014</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1348731380557531</v>
+        <v>0.1307414583636112</v>
       </c>
       <c r="O188" t="n">
         <v>4.453345052280014</v>
@@ -6089,25 +6089,25 @@
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.07621166409885853</v>
+        <v>0.07006019598464082</v>
       </c>
       <c r="G189" t="n">
         <v>4.489551109615624</v>
       </c>
       <c r="J189" t="n">
-        <v>0.07621166409885853</v>
+        <v>0.07006019598464082</v>
       </c>
       <c r="K189" t="n">
         <v>4.489551109615624</v>
       </c>
       <c r="L189" t="n">
-        <v>0.09462613604618125</v>
+        <v>0.1151792710142763</v>
       </c>
       <c r="M189" t="n">
         <v>4.489551109615624</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1340627252062947</v>
+        <v>0.1349225612327552</v>
       </c>
       <c r="O189" t="n">
         <v>4.489551109615624</v>
@@ -6115,25 +6115,25 @@
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.07917640404714782</v>
+        <v>0.06891297580583183</v>
       </c>
       <c r="G190" t="n">
         <v>4.525757166951233</v>
       </c>
       <c r="J190" t="n">
-        <v>0.07917640404714782</v>
+        <v>0.06891297580583183</v>
       </c>
       <c r="K190" t="n">
         <v>4.525757166951233</v>
       </c>
       <c r="L190" t="n">
-        <v>0.09289174077447081</v>
+        <v>0.1093273530439342</v>
       </c>
       <c r="M190" t="n">
         <v>4.525757166951233</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1418973466785662</v>
+        <v>0.1246965232804393</v>
       </c>
       <c r="O190" t="n">
         <v>4.525757166951233</v>
@@ -6141,25 +6141,25 @@
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.07677390367005985</v>
+        <v>0.07044139014897415</v>
       </c>
       <c r="G191" t="n">
         <v>4.561963224286843</v>
       </c>
       <c r="J191" t="n">
-        <v>0.07677390367005985</v>
+        <v>0.07044139014897415</v>
       </c>
       <c r="K191" t="n">
         <v>4.561963224286843</v>
       </c>
       <c r="L191" t="n">
-        <v>0.09223516046565973</v>
+        <v>0.1111027961137339</v>
       </c>
       <c r="M191" t="n">
         <v>4.561963224286843</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1411203718512052</v>
+        <v>0.1313827639374526</v>
       </c>
       <c r="O191" t="n">
         <v>4.561963224286843</v>
@@ -6167,25 +6167,25 @@
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.0778973015721028</v>
+        <v>0.0687820838519146</v>
       </c>
       <c r="G192" t="n">
         <v>4.598169281622453</v>
       </c>
       <c r="J192" t="n">
-        <v>0.0778973015721028</v>
+        <v>0.0687820838519146</v>
       </c>
       <c r="K192" t="n">
         <v>4.598169281622453</v>
       </c>
       <c r="L192" t="n">
-        <v>0.0978787067883661</v>
+        <v>0.1125975448906122</v>
       </c>
       <c r="M192" t="n">
         <v>4.598169281622453</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1342350348839498</v>
+        <v>0.1264915968975397</v>
       </c>
       <c r="O192" t="n">
         <v>4.598169281622453</v>
@@ -6193,25 +6193,25 @@
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.07242123396637906</v>
+        <v>0.0717588087131541</v>
       </c>
       <c r="G193" t="n">
         <v>4.634375338958063</v>
       </c>
       <c r="J193" t="n">
-        <v>0.07242123396637906</v>
+        <v>0.0717588087131541</v>
       </c>
       <c r="K193" t="n">
         <v>4.634375338958063</v>
       </c>
       <c r="L193" t="n">
-        <v>0.09559771885283938</v>
+        <v>0.1075912960096691</v>
       </c>
       <c r="M193" t="n">
         <v>4.634375338958063</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1363960446489151</v>
+        <v>0.1251987117068391</v>
       </c>
       <c r="O193" t="n">
         <v>4.634375338958063</v>
@@ -6219,25 +6219,25 @@
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.0762656644071614</v>
+        <v>0.0736571663422869</v>
       </c>
       <c r="G194" t="n">
         <v>4.670581396293673</v>
       </c>
       <c r="J194" t="n">
-        <v>0.0762656644071614</v>
+        <v>0.0736571663422869</v>
       </c>
       <c r="K194" t="n">
         <v>4.670581396293673</v>
       </c>
       <c r="L194" t="n">
-        <v>0.09269226198115116</v>
+        <v>0.1082474730437486</v>
       </c>
       <c r="M194" t="n">
         <v>4.670581396293673</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1387639067902964</v>
+        <v>0.1258882514074974</v>
       </c>
       <c r="O194" t="n">
         <v>4.670581396293673</v>
@@ -6245,25 +6245,25 @@
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.07522146112382742</v>
+        <v>0.0739386987553339</v>
       </c>
       <c r="G195" t="n">
         <v>4.706787453629283</v>
       </c>
       <c r="J195" t="n">
-        <v>0.07522146112382742</v>
+        <v>0.0739386987553339</v>
       </c>
       <c r="K195" t="n">
         <v>4.706787453629283</v>
       </c>
       <c r="L195" t="n">
-        <v>0.09585893410549286</v>
+        <v>0.1098921934181247</v>
       </c>
       <c r="M195" t="n">
         <v>4.706787453629283</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1349803220433745</v>
+        <v>0.118800577396774</v>
       </c>
       <c r="O195" t="n">
         <v>4.706787453629283</v>
@@ -6271,25 +6271,25 @@
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.07179223085536698</v>
+        <v>0.07125701857731835</v>
       </c>
       <c r="G196" t="n">
         <v>4.742993510964893</v>
       </c>
       <c r="J196" t="n">
-        <v>0.07179223085536698</v>
+        <v>0.07125701857731835</v>
       </c>
       <c r="K196" t="n">
         <v>4.742993510964893</v>
       </c>
       <c r="L196" t="n">
-        <v>0.09330434988155051</v>
+        <v>0.107380258544482</v>
       </c>
       <c r="M196" t="n">
         <v>4.742993510964893</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1351557206138287</v>
+        <v>0.1163620520621341</v>
       </c>
       <c r="O196" t="n">
         <v>4.742993510964893</v>
@@ -6297,25 +6297,25 @@
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.07168238989496413</v>
+        <v>0.07212010489613199</v>
       </c>
       <c r="G197" t="n">
         <v>4.779199568300502</v>
       </c>
       <c r="J197" t="n">
-        <v>0.07168238989496413</v>
+        <v>0.07212010489613199</v>
       </c>
       <c r="K197" t="n">
         <v>4.779199568300502</v>
       </c>
       <c r="L197" t="n">
-        <v>0.0938882544802323</v>
+        <v>0.1049297690948484</v>
       </c>
       <c r="M197" t="n">
         <v>4.779199568300502</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1251501625796435</v>
+        <v>0.1139771422984973</v>
       </c>
       <c r="O197" t="n">
         <v>4.779199568300502</v>
@@ -6323,25 +6323,25 @@
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.06879209680632987</v>
+        <v>0.06932647817299638</v>
       </c>
       <c r="G198" t="n">
         <v>4.815405625636112</v>
       </c>
       <c r="J198" t="n">
-        <v>0.06879209680632987</v>
+        <v>0.06932647817299638</v>
       </c>
       <c r="K198" t="n">
         <v>4.815405625636112</v>
       </c>
       <c r="L198" t="n">
-        <v>0.08987298230858294</v>
+        <v>0.1022097303639549</v>
       </c>
       <c r="M198" t="n">
         <v>4.815405625636112</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1261857249190331</v>
+        <v>0.1112581146205718</v>
       </c>
       <c r="O198" t="n">
         <v>4.815405625636112</v>
@@ -6349,25 +6349,25 @@
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.0723739315523077</v>
+        <v>0.0728610316426439</v>
       </c>
       <c r="G199" t="n">
         <v>4.851611682971722</v>
       </c>
       <c r="J199" t="n">
-        <v>0.0723739315523077</v>
+        <v>0.0728610316426439</v>
       </c>
       <c r="K199" t="n">
         <v>4.851611682971722</v>
       </c>
       <c r="L199" t="n">
-        <v>0.0910805031222132</v>
+        <v>0.1009467823777084</v>
       </c>
       <c r="M199" t="n">
         <v>4.851611682971722</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1278076493155376</v>
+        <v>0.1128119115040317</v>
       </c>
       <c r="O199" t="n">
         <v>4.851611682971722</v>
@@ -6375,25 +6375,25 @@
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.06868445757661505</v>
+        <v>0.07333746564822784</v>
       </c>
       <c r="G200" t="n">
         <v>4.887817740307332</v>
       </c>
       <c r="J200" t="n">
-        <v>0.06868445757661505</v>
+        <v>0.07333746564822784</v>
       </c>
       <c r="K200" t="n">
         <v>4.887817740307332</v>
       </c>
       <c r="L200" t="n">
-        <v>0.09150311833839807</v>
+        <v>0.1030175483584129</v>
       </c>
       <c r="M200" t="n">
         <v>4.887817740307332</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1241294610292431</v>
+        <v>0.1137782661909102</v>
       </c>
       <c r="O200" t="n">
         <v>4.887817740307332</v>
@@ -6401,25 +6401,25 @@
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.07204895526507141</v>
+        <v>0.07177593398186294</v>
       </c>
       <c r="G201" t="n">
         <v>4.924023797642942</v>
       </c>
       <c r="J201" t="n">
-        <v>0.07204895526507141</v>
+        <v>0.07177593398186294</v>
       </c>
       <c r="K201" t="n">
         <v>4.924023797642942</v>
       </c>
       <c r="L201" t="n">
-        <v>0.09063734230499632</v>
+        <v>0.1040926629113399</v>
       </c>
       <c r="M201" t="n">
         <v>4.924023797642942</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1203680497726993</v>
+        <v>0.1112694600716095</v>
       </c>
       <c r="O201" t="n">
         <v>4.924023797642942</v>
@@ -6427,25 +6427,25 @@
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.07002640640540141</v>
+        <v>0.0723017418473635</v>
       </c>
       <c r="G202" t="n">
         <v>4.960229854978552</v>
       </c>
       <c r="J202" t="n">
-        <v>0.07002640640540141</v>
+        <v>0.0723017418473635</v>
       </c>
       <c r="K202" t="n">
         <v>4.960229854978552</v>
       </c>
       <c r="L202" t="n">
-        <v>0.09026273905904647</v>
+        <v>0.09861497685218305</v>
       </c>
       <c r="M202" t="n">
         <v>4.960229854978552</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1177214750744125</v>
+        <v>0.1094045578295378</v>
       </c>
       <c r="O202" t="n">
         <v>4.960229854978552</v>
@@ -6453,25 +6453,25 @@
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.07138346881765945</v>
+        <v>0.06742759266267873</v>
       </c>
       <c r="G203" t="n">
         <v>4.996435912314162</v>
       </c>
       <c r="J203" t="n">
-        <v>0.07138346881765945</v>
+        <v>0.06742759266267873</v>
       </c>
       <c r="K203" t="n">
         <v>4.996435912314162</v>
       </c>
       <c r="L203" t="n">
-        <v>0.09204193027476401</v>
+        <v>0.09728697408051647</v>
       </c>
       <c r="M203" t="n">
         <v>4.996435912314162</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1199793912502006</v>
+        <v>0.1110472437090808</v>
       </c>
       <c r="O203" t="n">
         <v>4.996435912314162</v>
@@ -6479,25 +6479,25 @@
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.07094122769556629</v>
+        <v>0.06773809764320554</v>
       </c>
       <c r="G204" t="n">
         <v>5.032641969649771</v>
       </c>
       <c r="J204" t="n">
-        <v>0.07094122769556629</v>
+        <v>0.06773809764320554</v>
       </c>
       <c r="K204" t="n">
         <v>5.032641969649771</v>
       </c>
       <c r="L204" t="n">
-        <v>0.09289102187885744</v>
+        <v>0.1012752582034876</v>
       </c>
       <c r="M204" t="n">
         <v>5.032641969649771</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1184195725240737</v>
+        <v>0.109055784737452</v>
       </c>
       <c r="O204" t="n">
         <v>5.032641969649771</v>
@@ -6505,25 +6505,25 @@
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.06945885397420386</v>
+        <v>0.07145017583078868</v>
       </c>
       <c r="G205" t="n">
         <v>5.068848026985381</v>
       </c>
       <c r="J205" t="n">
-        <v>0.06945885397420386</v>
+        <v>0.07145017583078868</v>
       </c>
       <c r="K205" t="n">
         <v>5.068848026985381</v>
       </c>
       <c r="L205" t="n">
-        <v>0.09055270073130357</v>
+        <v>0.09454053165571322</v>
       </c>
       <c r="M205" t="n">
         <v>5.068848026985381</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1130202150010242</v>
+        <v>0.100461609927376</v>
       </c>
       <c r="O205" t="n">
         <v>5.068848026985381</v>
@@ -6531,25 +6531,25 @@
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.06949270168979158</v>
+        <v>0.06864851020894276</v>
       </c>
       <c r="G206" t="n">
         <v>5.105054084320991</v>
       </c>
       <c r="J206" t="n">
-        <v>0.06949270168979158</v>
+        <v>0.06864851020894276</v>
       </c>
       <c r="K206" t="n">
         <v>5.105054084320991</v>
       </c>
       <c r="L206" t="n">
-        <v>0.08862852783857747</v>
+        <v>0.09372254949360737</v>
       </c>
       <c r="M206" t="n">
         <v>5.105054084320991</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1164344116582864</v>
+        <v>0.09953119123673371</v>
       </c>
       <c r="O206" t="n">
         <v>5.105054084320991</v>
@@ -6557,25 +6557,25 @@
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.06787899553730127</v>
+        <v>0.06870915030542472</v>
       </c>
       <c r="G207" t="n">
         <v>5.141260141656601</v>
       </c>
       <c r="J207" t="n">
-        <v>0.06787899553730127</v>
+        <v>0.06870915030542472</v>
       </c>
       <c r="K207" t="n">
         <v>5.141260141656601</v>
       </c>
       <c r="L207" t="n">
-        <v>0.08569852432306467</v>
+        <v>0.09342846140251511</v>
       </c>
       <c r="M207" t="n">
         <v>5.141260141656601</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1192898315316034</v>
+        <v>0.09847656181982735</v>
       </c>
       <c r="O207" t="n">
         <v>5.141260141656601</v>
@@ -6583,25 +6583,25 @@
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.06637942879935978</v>
+        <v>0.06817975329623456</v>
       </c>
       <c r="G208" t="n">
         <v>5.177466198992211</v>
       </c>
       <c r="J208" t="n">
-        <v>0.06637942879935978</v>
+        <v>0.06817975329623456</v>
       </c>
       <c r="K208" t="n">
         <v>5.177466198992211</v>
       </c>
       <c r="L208" t="n">
-        <v>0.08572399300183622</v>
+        <v>0.09513623278321191</v>
       </c>
       <c r="M208" t="n">
         <v>5.177466198992211</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1103485497805336</v>
+        <v>0.101942175091912</v>
       </c>
       <c r="O208" t="n">
         <v>5.177466198992211</v>
@@ -6609,25 +6609,25 @@
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.06328556769875038</v>
+        <v>0.06607401418994191</v>
       </c>
       <c r="G209" t="n">
         <v>5.213672256327821</v>
       </c>
       <c r="J209" t="n">
-        <v>0.06328556769875038</v>
+        <v>0.06607401418994191</v>
       </c>
       <c r="K209" t="n">
         <v>5.213672256327821</v>
       </c>
       <c r="L209" t="n">
-        <v>0.08397126197696771</v>
+        <v>0.09766363283037073</v>
       </c>
       <c r="M209" t="n">
         <v>5.213672256327821</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1182326862394987</v>
+        <v>0.09762276330175504</v>
       </c>
       <c r="O209" t="n">
         <v>5.213672256327821</v>
@@ -6635,25 +6635,25 @@
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.06730521536476569</v>
+        <v>0.07131072762449658</v>
       </c>
       <c r="G210" t="n">
         <v>5.24987831366343</v>
       </c>
       <c r="J210" t="n">
-        <v>0.06730521536476569</v>
+        <v>0.07131072762449658</v>
       </c>
       <c r="K210" t="n">
         <v>5.24987831366343</v>
       </c>
       <c r="L210" t="n">
-        <v>0.08855108988086187</v>
+        <v>0.0980260983421111</v>
       </c>
       <c r="M210" t="n">
         <v>5.24987831366343</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1131068869647522</v>
+        <v>0.1027748505310986</v>
       </c>
       <c r="O210" t="n">
         <v>5.24987831366343</v>
@@ -6661,25 +6661,25 @@
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.06203989556682442</v>
+        <v>0.06962272458712734</v>
       </c>
       <c r="G211" t="n">
         <v>5.28608437099904</v>
       </c>
       <c r="J211" t="n">
-        <v>0.06203989556682442</v>
+        <v>0.06962272458712734</v>
       </c>
       <c r="K211" t="n">
         <v>5.28608437099904</v>
       </c>
       <c r="L211" t="n">
-        <v>0.08792455261352602</v>
+        <v>0.09509792934650968</v>
       </c>
       <c r="M211" t="n">
         <v>5.28608437099904</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1134254248213733</v>
+        <v>0.09709349608082822</v>
       </c>
       <c r="O211" t="n">
         <v>5.28608437099904</v>
@@ -6687,25 +6687,25 @@
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.06485112361700095</v>
+        <v>0.06983505490642375</v>
       </c>
       <c r="G212" t="n">
         <v>5.32229042833465</v>
       </c>
       <c r="J212" t="n">
-        <v>0.06485112361700095</v>
+        <v>0.06983505490642375</v>
       </c>
       <c r="K212" t="n">
         <v>5.32229042833465</v>
       </c>
       <c r="L212" t="n">
-        <v>0.08871481082722231</v>
+        <v>0.097169449725619</v>
       </c>
       <c r="M212" t="n">
         <v>5.32229042833465</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1109710510865655</v>
+        <v>0.1018076233975572</v>
       </c>
       <c r="O212" t="n">
         <v>5.32229042833465</v>
@@ -6713,25 +6713,25 @@
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.06157250442260192</v>
+        <v>0.06528864273663773</v>
       </c>
       <c r="G213" t="n">
         <v>5.35849648567026</v>
       </c>
       <c r="J213" t="n">
-        <v>0.06157250442260192</v>
+        <v>0.06528864273663773</v>
       </c>
       <c r="K213" t="n">
         <v>5.35849648567026</v>
       </c>
       <c r="L213" t="n">
-        <v>0.08913206898391848</v>
+        <v>0.09331054205251635</v>
       </c>
       <c r="M213" t="n">
         <v>5.35849648567026</v>
       </c>
       <c r="N213" t="n">
-        <v>0.109528593784247</v>
+        <v>0.1024924562814401</v>
       </c>
       <c r="O213" t="n">
         <v>5.35849648567026</v>
@@ -6739,25 +6739,25 @@
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.06387061935255522</v>
+        <v>0.06783996834735667</v>
       </c>
       <c r="G214" t="n">
         <v>5.39470254300587</v>
       </c>
       <c r="J214" t="n">
-        <v>0.06387061935255522</v>
+        <v>0.06783996834735667</v>
       </c>
       <c r="K214" t="n">
         <v>5.39470254300587</v>
       </c>
       <c r="L214" t="n">
-        <v>0.08705082398948837</v>
+        <v>0.09499606414349339</v>
       </c>
       <c r="M214" t="n">
         <v>5.39470254300587</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1117236511389427</v>
+        <v>0.09529546416141392</v>
       </c>
       <c r="O214" t="n">
         <v>5.39470254300587</v>
@@ -6765,25 +6765,25 @@
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.06129769734019348</v>
+        <v>0.06508936746693961</v>
       </c>
       <c r="G215" t="n">
         <v>5.43090860034148</v>
       </c>
       <c r="J215" t="n">
-        <v>0.06129769734019348</v>
+        <v>0.06508936746693961</v>
       </c>
       <c r="K215" t="n">
         <v>5.43090860034148</v>
       </c>
       <c r="L215" t="n">
-        <v>0.08749503224442166</v>
+        <v>0.08981213028293407</v>
       </c>
       <c r="M215" t="n">
         <v>5.43090860034148</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1092867383833917</v>
+        <v>0.1001800443760934</v>
       </c>
       <c r="O215" t="n">
         <v>5.43090860034148</v>
@@ -6791,25 +6791,25 @@
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.06002691927430837</v>
+        <v>0.06617002764636598</v>
       </c>
       <c r="G216" t="n">
         <v>5.46711465767709</v>
       </c>
       <c r="J216" t="n">
-        <v>0.06002691927430837</v>
+        <v>0.06617002764636598</v>
       </c>
       <c r="K216" t="n">
         <v>5.46711465767709</v>
       </c>
       <c r="L216" t="n">
-        <v>0.0841226317707305</v>
+        <v>0.09601162447276677</v>
       </c>
       <c r="M216" t="n">
         <v>5.46711465767709</v>
       </c>
       <c r="N216" t="n">
-        <v>0.111400014818486</v>
+        <v>0.09924556728520156</v>
       </c>
       <c r="O216" t="n">
         <v>5.46711465767709</v>
@@ -6817,25 +6817,25 @@
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.062578286648677</v>
+        <v>0.06546110064206123</v>
       </c>
       <c r="G217" t="n">
         <v>5.503320715012699</v>
       </c>
       <c r="J217" t="n">
-        <v>0.062578286648677</v>
+        <v>0.06546110064206123</v>
       </c>
       <c r="K217" t="n">
         <v>5.503320715012699</v>
       </c>
       <c r="L217" t="n">
-        <v>0.0835817008724109</v>
+        <v>0.09570953835501259</v>
       </c>
       <c r="M217" t="n">
         <v>5.503320715012699</v>
       </c>
       <c r="N217" t="n">
-        <v>0.103843962684913</v>
+        <v>0.09983650571960288</v>
       </c>
       <c r="O217" t="n">
         <v>5.503320715012699</v>
@@ -6843,25 +6843,25 @@
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.06446137546814919</v>
+        <v>0.06546249839388171</v>
       </c>
       <c r="G218" t="n">
         <v>5.539526772348309</v>
       </c>
       <c r="J218" t="n">
-        <v>0.06446137546814919</v>
+        <v>0.06546249839388171</v>
       </c>
       <c r="K218" t="n">
         <v>5.539526772348309</v>
       </c>
       <c r="L218" t="n">
-        <v>0.08507451798176938</v>
+        <v>0.09267882939794399</v>
       </c>
       <c r="M218" t="n">
         <v>5.539526772348309</v>
       </c>
       <c r="N218" t="n">
-        <v>0.110173601966263</v>
+        <v>0.09665288173557025</v>
       </c>
       <c r="O218" t="n">
         <v>5.539526772348309</v>
@@ -6869,25 +6869,25 @@
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.06067395799587609</v>
+        <v>0.0647897050342561</v>
       </c>
       <c r="G219" t="n">
         <v>5.575732829683919</v>
       </c>
       <c r="J219" t="n">
-        <v>0.06067395799587609</v>
+        <v>0.0647897050342561</v>
       </c>
       <c r="K219" t="n">
         <v>5.575732829683919</v>
       </c>
       <c r="L219" t="n">
-        <v>0.08219749414507689</v>
+        <v>0.0964749794632888</v>
       </c>
       <c r="M219" t="n">
         <v>5.575732829683919</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1039509833568482</v>
+        <v>0.1020408608222474</v>
       </c>
       <c r="O219" t="n">
         <v>5.575732829683919</v>
@@ -6895,25 +6895,25 @@
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.06306596404746422</v>
+        <v>0.06362676059824833</v>
       </c>
       <c r="G220" t="n">
         <v>5.611938887019529</v>
       </c>
       <c r="J220" t="n">
-        <v>0.06306596404746422</v>
+        <v>0.06362676059824833</v>
       </c>
       <c r="K220" t="n">
         <v>5.611938887019529</v>
       </c>
       <c r="L220" t="n">
-        <v>0.08059633748388143</v>
+        <v>0.09374503712714265</v>
       </c>
       <c r="M220" t="n">
         <v>5.611938887019529</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1054172667804222</v>
+        <v>0.09978375820744455</v>
       </c>
       <c r="O220" t="n">
         <v>5.611938887019529</v>
@@ -6921,25 +6921,25 @@
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.06134157680982211</v>
+        <v>0.06843019520633672</v>
       </c>
       <c r="G221" t="n">
         <v>5.648144944355139</v>
       </c>
       <c r="J221" t="n">
-        <v>0.06134157680982211</v>
+        <v>0.06843019520633672</v>
       </c>
       <c r="K221" t="n">
         <v>5.648144944355139</v>
       </c>
       <c r="L221" t="n">
-        <v>0.08575448062103312</v>
+        <v>0.09668047154267422</v>
       </c>
       <c r="M221" t="n">
         <v>5.648144944355139</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1044260397230453</v>
+        <v>0.1009266714230972</v>
       </c>
       <c r="O221" t="n">
         <v>5.648144944355139</v>
@@ -6947,25 +6947,25 @@
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.06138578226385246</v>
+        <v>0.06643366637781606</v>
       </c>
       <c r="G222" t="n">
         <v>5.684351001690749</v>
       </c>
       <c r="J222" t="n">
-        <v>0.06138578226385246</v>
+        <v>0.06643366637781606</v>
       </c>
       <c r="K222" t="n">
         <v>5.684351001690749</v>
       </c>
       <c r="L222" t="n">
-        <v>0.08433999023449716</v>
+        <v>0.09111752205934258</v>
       </c>
       <c r="M222" t="n">
         <v>5.684351001690749</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1089728370151548</v>
+        <v>0.09583797168166228</v>
       </c>
       <c r="O222" t="n">
         <v>5.684351001690749</v>
@@ -6973,25 +6973,25 @@
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.0591484630954255</v>
+        <v>0.06425284444999933</v>
       </c>
       <c r="G223" t="n">
         <v>5.720557059026359</v>
       </c>
       <c r="J223" t="n">
-        <v>0.0591484630954255</v>
+        <v>0.06425284444999933</v>
       </c>
       <c r="K223" t="n">
         <v>5.720557059026359</v>
       </c>
       <c r="L223" t="n">
-        <v>0.08163072880546682</v>
+        <v>0.09538064665443823</v>
       </c>
       <c r="M223" t="n">
         <v>5.720557059026359</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1056060699900302</v>
+        <v>0.09508557307888925</v>
       </c>
       <c r="O223" t="n">
         <v>5.720557059026359</v>
@@ -6999,25 +6999,25 @@
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.06130519321299849</v>
+        <v>0.06550701238335345</v>
       </c>
       <c r="G224" t="n">
         <v>5.756763116361968</v>
       </c>
       <c r="J224" t="n">
-        <v>0.06130519321299849</v>
+        <v>0.06550701238335345</v>
       </c>
       <c r="K224" t="n">
         <v>5.756763116361968</v>
       </c>
       <c r="L224" t="n">
-        <v>0.07971142681609722</v>
+        <v>0.08878020411975002</v>
       </c>
       <c r="M224" t="n">
         <v>5.756763116361968</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1079347295643316</v>
+        <v>0.09529489852039928</v>
       </c>
       <c r="O224" t="n">
         <v>5.756763116361968</v>
@@ -7025,25 +7025,25 @@
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.06235729323614895</v>
+        <v>0.0629810473163978</v>
       </c>
       <c r="G225" t="n">
         <v>5.792969173697578</v>
       </c>
       <c r="J225" t="n">
-        <v>0.06235729323614895</v>
+        <v>0.0629810473163978</v>
       </c>
       <c r="K225" t="n">
         <v>5.792969173697578</v>
       </c>
       <c r="L225" t="n">
-        <v>0.0845102436335893</v>
+        <v>0.09644526927023749</v>
       </c>
       <c r="M225" t="n">
         <v>5.792969173697578</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1062400219407973</v>
+        <v>0.09590348355402736</v>
       </c>
       <c r="O225" t="n">
         <v>5.792969173697578</v>
@@ -7051,25 +7051,25 @@
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.0581045744456659</v>
+        <v>0.06300025772968056</v>
       </c>
       <c r="G226" t="n">
         <v>5.829175231033188</v>
       </c>
       <c r="J226" t="n">
-        <v>0.0581045744456659</v>
+        <v>0.06300025772968056</v>
       </c>
       <c r="K226" t="n">
         <v>5.829175231033188</v>
       </c>
       <c r="L226" t="n">
-        <v>0.08415135198293057</v>
+        <v>0.09340834663617185</v>
       </c>
       <c r="M226" t="n">
         <v>5.829175231033188</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1060217537512554</v>
+        <v>0.09988169034992748</v>
       </c>
       <c r="O226" t="n">
         <v>5.829175231033188</v>
@@ -7077,25 +7077,25 @@
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.05994924381497407</v>
+        <v>0.06420966484212727</v>
       </c>
       <c r="G227" t="n">
         <v>5.865381288368798</v>
       </c>
       <c r="J227" t="n">
-        <v>0.05994924381497407</v>
+        <v>0.06420966484212727</v>
       </c>
       <c r="K227" t="n">
         <v>5.865381288368798</v>
       </c>
       <c r="L227" t="n">
-        <v>0.08407014695004887</v>
+        <v>0.09618304302773464</v>
       </c>
       <c r="M227" t="n">
         <v>5.865381288368798</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1051714074354271</v>
+        <v>0.1017456523999767</v>
       </c>
       <c r="O227" t="n">
         <v>5.865381288368798</v>
@@ -7103,25 +7103,25 @@
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.0575308954119817</v>
+        <v>0.06211344039141265</v>
       </c>
       <c r="G228" t="n">
         <v>5.901587345704408</v>
       </c>
       <c r="J228" t="n">
-        <v>0.0575308954119817</v>
+        <v>0.06211344039141265</v>
       </c>
       <c r="K228" t="n">
         <v>5.901587345704408</v>
       </c>
       <c r="L228" t="n">
-        <v>0.07927899720621516</v>
+        <v>0.09428133294720624</v>
       </c>
       <c r="M228" t="n">
         <v>5.901587345704408</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1056317866236153</v>
+        <v>0.09539907977076334</v>
       </c>
       <c r="O228" t="n">
         <v>5.901587345704408</v>
@@ -7129,25 +7129,25 @@
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.05942618265591196</v>
+        <v>0.06320652642507436</v>
       </c>
       <c r="G229" t="n">
         <v>5.937793403040018</v>
       </c>
       <c r="J229" t="n">
-        <v>0.05942618265591196</v>
+        <v>0.06320652642507436</v>
       </c>
       <c r="K229" t="n">
         <v>5.937793403040018</v>
       </c>
       <c r="L229" t="n">
-        <v>0.07750523047094281</v>
+        <v>0.08962714275138696</v>
       </c>
       <c r="M229" t="n">
         <v>5.937793403040018</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1012570748952592</v>
+        <v>0.09436101391185647</v>
       </c>
       <c r="O229" t="n">
         <v>5.937793403040018</v>
@@ -7155,25 +7155,25 @@
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.05588258285001232</v>
+        <v>0.06515968834688386</v>
       </c>
       <c r="G230" t="n">
         <v>5.973999460375628</v>
       </c>
       <c r="J230" t="n">
-        <v>0.05588258285001232</v>
+        <v>0.06515968834688386</v>
       </c>
       <c r="K230" t="n">
         <v>5.973999460375628</v>
       </c>
       <c r="L230" t="n">
-        <v>0.08233667480951555</v>
+        <v>0.08966049363956666</v>
       </c>
       <c r="M230" t="n">
         <v>5.973999460375628</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1027621050733544</v>
+        <v>0.1015710053906583</v>
       </c>
       <c r="O230" t="n">
         <v>5.973999460375628</v>
@@ -7181,25 +7181,25 @@
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.05663190605699224</v>
+        <v>0.0622510379701825</v>
       </c>
       <c r="G231" t="n">
         <v>6.010205517711237</v>
       </c>
       <c r="J231" t="n">
-        <v>0.05663190605699224</v>
+        <v>0.0622510379701825</v>
       </c>
       <c r="K231" t="n">
         <v>6.010205517711237</v>
       </c>
       <c r="L231" t="n">
-        <v>0.08190327694664079</v>
+        <v>0.09318596163199953</v>
       </c>
       <c r="M231" t="n">
         <v>6.010205517711237</v>
       </c>
       <c r="N231" t="n">
-        <v>0.09778967568534906</v>
+        <v>0.09341494958774485</v>
       </c>
       <c r="O231" t="n">
         <v>6.010205517711237</v>
@@ -7207,25 +7207,25 @@
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.05946016068886427</v>
+        <v>0.06392159507403912</v>
       </c>
       <c r="G232" t="n">
         <v>6.046411575046847</v>
       </c>
       <c r="J232" t="n">
-        <v>0.05946016068886427</v>
+        <v>0.06392159507403912</v>
       </c>
       <c r="K232" t="n">
         <v>6.046411575046847</v>
       </c>
       <c r="L232" t="n">
-        <v>0.07962351779543538</v>
+        <v>0.09190129807562682</v>
       </c>
       <c r="M232" t="n">
         <v>6.046411575046847</v>
       </c>
       <c r="N232" t="n">
-        <v>0.101297089494578</v>
+        <v>0.1015865629712812</v>
       </c>
       <c r="O232" t="n">
         <v>6.046411575046847</v>
@@ -7233,25 +7233,25 @@
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.05847865254656785</v>
+        <v>0.06333537879996939</v>
       </c>
       <c r="G233" t="n">
         <v>6.082617632382457</v>
       </c>
       <c r="J233" t="n">
-        <v>0.05847865254656785</v>
+        <v>0.06333537879996939</v>
       </c>
       <c r="K233" t="n">
         <v>6.082617632382457</v>
       </c>
       <c r="L233" t="n">
-        <v>0.08151417748898492</v>
+        <v>0.08719849544627961</v>
       </c>
       <c r="M233" t="n">
         <v>6.082617632382457</v>
       </c>
       <c r="N233" t="n">
-        <v>0.09797475849927378</v>
+        <v>0.09845278543560347</v>
       </c>
       <c r="O233" t="n">
         <v>6.082617632382457</v>
@@ -7259,25 +7259,25 @@
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.05665330456958884</v>
+        <v>0.06095837449618729</v>
       </c>
       <c r="G234" t="n">
         <v>6.118823689718067</v>
       </c>
       <c r="J234" t="n">
-        <v>0.05665330456958884</v>
+        <v>0.06095837449618729</v>
       </c>
       <c r="K234" t="n">
         <v>6.118823689718067</v>
       </c>
       <c r="L234" t="n">
-        <v>0.07566393321300392</v>
+        <v>0.08804259220548766</v>
       </c>
       <c r="M234" t="n">
         <v>6.118823689718067</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1023649563458503</v>
+        <v>0.09649087673469198</v>
       </c>
       <c r="O234" t="n">
         <v>6.118823689718067</v>
@@ -7285,25 +7285,25 @@
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.05387098988079703</v>
+        <v>0.05882672059203896</v>
       </c>
       <c r="G235" t="n">
         <v>6.155029747053677</v>
       </c>
       <c r="J235" t="n">
-        <v>0.05387098988079703</v>
+        <v>0.05882672059203896</v>
       </c>
       <c r="K235" t="n">
         <v>6.155029747053677</v>
       </c>
       <c r="L235" t="n">
-        <v>0.07917860200832022</v>
+        <v>0.09423998570168755</v>
       </c>
       <c r="M235" t="n">
         <v>6.155029747053677</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1031578533368379</v>
+        <v>0.09280760612014484</v>
       </c>
       <c r="O235" t="n">
         <v>6.155029747053677</v>
@@ -7311,25 +7311,25 @@
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.05545190086410649</v>
+        <v>0.05912027842472648</v>
       </c>
       <c r="G236" t="n">
         <v>6.191235804389287</v>
       </c>
       <c r="J236" t="n">
-        <v>0.05545190086410649</v>
+        <v>0.05912027842472648</v>
       </c>
       <c r="K236" t="n">
         <v>6.191235804389287</v>
       </c>
       <c r="L236" t="n">
-        <v>0.07967640915172861</v>
+        <v>0.09255428397387286</v>
       </c>
       <c r="M236" t="n">
         <v>6.191235804389287</v>
       </c>
       <c r="N236" t="n">
-        <v>0.09954096248444065</v>
+        <v>0.0999700414514095</v>
       </c>
       <c r="O236" t="n">
         <v>6.191235804389287</v>
@@ -7337,25 +7337,25 @@
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.05352852606579685</v>
+        <v>0.05897534240387001</v>
       </c>
       <c r="G237" t="n">
         <v>6.227441861724897</v>
       </c>
       <c r="J237" t="n">
-        <v>0.05352852606579685</v>
+        <v>0.05897534240387001</v>
       </c>
       <c r="K237" t="n">
         <v>6.227441861724897</v>
       </c>
       <c r="L237" t="n">
-        <v>0.0753858319162822</v>
+        <v>0.0885495600607222</v>
       </c>
       <c r="M237" t="n">
         <v>6.227441861724897</v>
       </c>
       <c r="N237" t="n">
-        <v>0.09798699989797713</v>
+        <v>0.09898080439779844</v>
       </c>
       <c r="O237" t="n">
         <v>6.227441861724897</v>
@@ -7363,25 +7363,25 @@
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.05634531527759944</v>
+        <v>0.06101097806389271</v>
       </c>
       <c r="G238" t="n">
         <v>6.263647919060507</v>
       </c>
       <c r="J238" t="n">
-        <v>0.05634531527759944</v>
+        <v>0.06101097806389271</v>
       </c>
       <c r="K238" t="n">
         <v>6.263647919060507</v>
       </c>
       <c r="L238" t="n">
-        <v>0.0747199194206123</v>
+        <v>0.09100403935703377</v>
       </c>
       <c r="M238" t="n">
         <v>6.263647919060507</v>
       </c>
       <c r="N238" t="n">
-        <v>0.09740028341417316</v>
+        <v>0.0948388854693822</v>
       </c>
       <c r="O238" t="n">
         <v>6.263647919060507</v>
@@ -7389,25 +7389,25 @@
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.05436147964711401</v>
+        <v>0.05787243689583801</v>
       </c>
       <c r="G239" t="n">
         <v>6.299853976396117</v>
       </c>
       <c r="J239" t="n">
-        <v>0.05436147964711401</v>
+        <v>0.05787243689583801</v>
       </c>
       <c r="K239" t="n">
         <v>6.299853976396117</v>
       </c>
       <c r="L239" t="n">
-        <v>0.0772500682711182</v>
+        <v>0.09133754586956226</v>
       </c>
       <c r="M239" t="n">
         <v>6.299853976396117</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1022951040992641</v>
+        <v>0.09693140761136693</v>
       </c>
       <c r="O239" t="n">
         <v>6.299853976396117</v>
@@ -7415,25 +7415,25 @@
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.05429043712230059</v>
+        <v>0.06016101041473706</v>
       </c>
       <c r="G240" t="n">
         <v>6.336060033731727</v>
       </c>
       <c r="J240" t="n">
-        <v>0.05429043712230059</v>
+        <v>0.06016101041473706</v>
       </c>
       <c r="K240" t="n">
         <v>6.336060033731727</v>
       </c>
       <c r="L240" t="n">
-        <v>0.07289516073014682</v>
+        <v>0.08967687686550592</v>
       </c>
       <c r="M240" t="n">
         <v>6.336060033731727</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1032457020027192</v>
+        <v>0.0932070772362897</v>
       </c>
       <c r="O240" t="n">
         <v>6.336060033731727</v>
@@ -7441,25 +7441,25 @@
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.05354539425917698</v>
+        <v>0.05591259749423327</v>
       </c>
       <c r="G241" t="n">
         <v>6.372266091067337</v>
       </c>
       <c r="J241" t="n">
-        <v>0.05354539425917698</v>
+        <v>0.05591259749423327</v>
       </c>
       <c r="K241" t="n">
         <v>6.372266091067337</v>
       </c>
       <c r="L241" t="n">
-        <v>0.07368893649085778</v>
+        <v>0.09035871504339001</v>
       </c>
       <c r="M241" t="n">
         <v>6.372266091067337</v>
       </c>
       <c r="N241" t="n">
-        <v>0.09583736747396594</v>
+        <v>0.09810707012288185</v>
       </c>
       <c r="O241" t="n">
         <v>6.372266091067337</v>
@@ -7467,25 +7467,25 @@
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.05076569778869752</v>
+        <v>0.05812497285081002</v>
       </c>
       <c r="G242" t="n">
         <v>6.408472148402947</v>
       </c>
       <c r="J242" t="n">
-        <v>0.05076569778869752</v>
+        <v>0.05812497285081002</v>
       </c>
       <c r="K242" t="n">
         <v>6.408472148402947</v>
       </c>
       <c r="L242" t="n">
-        <v>0.07538697380972537</v>
+        <v>0.08422650047266581</v>
       </c>
       <c r="M242" t="n">
         <v>6.408472148402947</v>
       </c>
       <c r="N242" t="n">
-        <v>0.0963134661162551</v>
+        <v>0.0921632347697218</v>
       </c>
       <c r="O242" t="n">
         <v>6.408472148402947</v>
@@ -7493,25 +7493,25 @@
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.05183469670180701</v>
+        <v>0.05713953373644497</v>
       </c>
       <c r="G243" t="n">
         <v>6.444678205738557</v>
       </c>
       <c r="J243" t="n">
-        <v>0.05183469670180701</v>
+        <v>0.05713953373644497</v>
       </c>
       <c r="K243" t="n">
         <v>6.444678205738557</v>
       </c>
       <c r="L243" t="n">
-        <v>0.07264258073222933</v>
+        <v>0.08846663264691645</v>
       </c>
       <c r="M243" t="n">
         <v>6.444678205738557</v>
       </c>
       <c r="N243" t="n">
-        <v>0.09950330805221527</v>
+        <v>0.09154876785154481</v>
       </c>
       <c r="O243" t="n">
         <v>6.444678205738557</v>
@@ -7519,25 +7519,25 @@
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.05178243327389634</v>
+        <v>0.05574447511492607</v>
       </c>
       <c r="G244" t="n">
         <v>6.480884263074166</v>
       </c>
       <c r="J244" t="n">
-        <v>0.05178243327389634</v>
+        <v>0.05574447511492607</v>
       </c>
       <c r="K244" t="n">
         <v>6.480884263074166</v>
       </c>
       <c r="L244" t="n">
-        <v>0.06950568399955749</v>
+        <v>0.08689262533129641</v>
       </c>
       <c r="M244" t="n">
         <v>6.480884263074166</v>
       </c>
       <c r="N244" t="n">
-        <v>0.09875933074249699</v>
+        <v>0.09427476364546442</v>
       </c>
       <c r="O244" t="n">
         <v>6.480884263074166</v>
@@ -7545,25 +7545,25 @@
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.04777119299288415</v>
+        <v>0.05353485305350695</v>
       </c>
       <c r="G245" t="n">
         <v>6.517090320409776</v>
       </c>
       <c r="J245" t="n">
-        <v>0.04777119299288415</v>
+        <v>0.05353485305350695</v>
       </c>
       <c r="K245" t="n">
         <v>6.517090320409776</v>
       </c>
       <c r="L245" t="n">
-        <v>0.06930820331654984</v>
+        <v>0.08739573612895409</v>
       </c>
       <c r="M245" t="n">
         <v>6.517090320409776</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1017673414152307</v>
+        <v>0.09203969317996988</v>
       </c>
       <c r="O245" t="n">
         <v>6.517090320409776</v>
@@ -7571,25 +7571,25 @@
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.04643685694199776</v>
+        <v>0.05372071617249754</v>
       </c>
       <c r="G246" t="n">
         <v>6.553296377745386</v>
       </c>
       <c r="J246" t="n">
-        <v>0.04643685694199776</v>
+        <v>0.05372071617249754</v>
       </c>
       <c r="K246" t="n">
         <v>6.553296377745386</v>
       </c>
       <c r="L246" t="n">
-        <v>0.06778213825891338</v>
+        <v>0.07914635524653267</v>
       </c>
       <c r="M246" t="n">
         <v>6.553296377745386</v>
       </c>
       <c r="N246" t="n">
-        <v>0.09864730228270001</v>
+        <v>0.0900540087991067</v>
       </c>
       <c r="O246" t="n">
         <v>6.553296377745386</v>
@@ -7597,25 +7597,25 @@
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.04912177332834843</v>
+        <v>0.05121748698870856</v>
       </c>
       <c r="G247" t="n">
         <v>6.589502435080996</v>
       </c>
       <c r="J247" t="n">
-        <v>0.04912177332834843</v>
+        <v>0.05121748698870856</v>
       </c>
       <c r="K247" t="n">
         <v>6.589502435080996</v>
       </c>
       <c r="L247" t="n">
-        <v>0.06613918069138247</v>
+        <v>0.08349888499638469</v>
       </c>
       <c r="M247" t="n">
         <v>6.589502435080996</v>
       </c>
       <c r="N247" t="n">
-        <v>0.09809349060565402</v>
+        <v>0.09585144686394892</v>
       </c>
       <c r="O247" t="n">
         <v>6.589502435080996</v>
@@ -7623,25 +7623,25 @@
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.04490153348727145</v>
+        <v>0.04963969534426011</v>
       </c>
       <c r="G248" t="n">
         <v>6.625708492416606</v>
       </c>
       <c r="J248" t="n">
-        <v>0.04490153348727145</v>
+        <v>0.04963969534426011</v>
       </c>
       <c r="K248" t="n">
         <v>6.625708492416606</v>
       </c>
       <c r="L248" t="n">
-        <v>0.06469223923444269</v>
+        <v>0.08065565353678493</v>
       </c>
       <c r="M248" t="n">
         <v>6.625708492416606</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1031613748457229</v>
+        <v>0.08766409499150606</v>
       </c>
       <c r="O248" t="n">
         <v>6.625708492416606</v>
@@ -7649,25 +7649,25 @@
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.04735597216805999</v>
+        <v>0.05022657919218499</v>
       </c>
       <c r="G249" t="n">
         <v>6.661914549752216</v>
       </c>
       <c r="J249" t="n">
-        <v>0.04735597216805999</v>
+        <v>0.05022657919218499</v>
       </c>
       <c r="K249" t="n">
         <v>6.661914549752216</v>
       </c>
       <c r="L249" t="n">
-        <v>0.06795459983236002</v>
+        <v>0.07860500380745204</v>
       </c>
       <c r="M249" t="n">
         <v>6.661914549752216</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1005719094829751</v>
+        <v>0.08870038520247001</v>
       </c>
       <c r="O249" t="n">
         <v>6.661914549752216</v>
@@ -7675,25 +7675,25 @@
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.04459001051816108</v>
+        <v>0.04750156795783572</v>
       </c>
       <c r="G250" t="n">
         <v>6.698120607087826</v>
       </c>
       <c r="J250" t="n">
-        <v>0.04459001051816108</v>
+        <v>0.04750156795783572</v>
       </c>
       <c r="K250" t="n">
         <v>6.698120607087826</v>
       </c>
       <c r="L250" t="n">
-        <v>0.0624125792058222</v>
+        <v>0.07500788897939094</v>
       </c>
       <c r="M250" t="n">
         <v>6.698120607087826</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1026190092600723</v>
+        <v>0.09329068887580698</v>
       </c>
       <c r="O250" t="n">
         <v>6.698120607087826</v>
@@ -7701,25 +7701,25 @@
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.04439342412967868</v>
+        <v>0.04876351311896368</v>
       </c>
       <c r="G251" t="n">
         <v>6.734326664423435</v>
       </c>
       <c r="J251" t="n">
-        <v>0.04439342412967868</v>
+        <v>0.04876351311896368</v>
       </c>
       <c r="K251" t="n">
         <v>6.734326664423435</v>
       </c>
       <c r="L251" t="n">
-        <v>0.06419372668818248</v>
+        <v>0.07503758329432871</v>
       </c>
       <c r="M251" t="n">
         <v>6.734326664423435</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1008375476588372</v>
+        <v>0.08548287335164154</v>
       </c>
       <c r="O251" t="n">
         <v>6.734326664423435</v>
@@ -7727,25 +7727,25 @@
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.04343377562576151</v>
+        <v>0.04496264792649188</v>
       </c>
       <c r="G252" t="n">
         <v>6.770532721759045</v>
       </c>
       <c r="J252" t="n">
-        <v>0.04343377562576151</v>
+        <v>0.04496264792649188</v>
       </c>
       <c r="K252" t="n">
         <v>6.770532721759045</v>
       </c>
       <c r="L252" t="n">
-        <v>0.0651245312853167</v>
+        <v>0.0774289160035042</v>
       </c>
       <c r="M252" t="n">
         <v>6.770532721759045</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1023587691667389</v>
+        <v>0.0859308488853434</v>
       </c>
       <c r="O252" t="n">
         <v>6.770532721759045</v>
@@ -7753,25 +7753,25 @@
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.04048434971910467</v>
+        <v>0.04365289940317171</v>
       </c>
       <c r="G253" t="n">
         <v>6.806738779094655</v>
       </c>
       <c r="J253" t="n">
-        <v>0.04048434971910467</v>
+        <v>0.04365289940317171</v>
       </c>
       <c r="K253" t="n">
         <v>6.806738779094655</v>
       </c>
       <c r="L253" t="n">
-        <v>0.05908828576682718</v>
+        <v>0.07113960008601912</v>
       </c>
       <c r="M253" t="n">
         <v>6.806738779094655</v>
       </c>
       <c r="N253" t="n">
-        <v>0.09689763139098113</v>
+        <v>0.09116286280257772</v>
       </c>
       <c r="O253" t="n">
         <v>6.806738779094655</v>
@@ -7779,25 +7779,25 @@
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.03918202760436448</v>
+        <v>0.04220092767810043</v>
       </c>
       <c r="G254" t="n">
         <v>6.842944836430265</v>
       </c>
       <c r="J254" t="n">
-        <v>0.03918202760436448</v>
+        <v>0.04220092767810043</v>
       </c>
       <c r="K254" t="n">
         <v>6.842944836430265</v>
       </c>
       <c r="L254" t="n">
-        <v>0.05959503014883525</v>
+        <v>0.07415977569631639</v>
       </c>
       <c r="M254" t="n">
         <v>6.842944836430265</v>
       </c>
       <c r="N254" t="n">
-        <v>0.09645996442179222</v>
+        <v>0.08703645142394402</v>
       </c>
       <c r="O254" t="n">
         <v>6.842944836430265</v>
@@ -7805,25 +7805,25 @@
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.0393473714524053</v>
+        <v>0.04401087166991854</v>
       </c>
       <c r="G255" t="n">
         <v>6.879150893765875</v>
       </c>
       <c r="J255" t="n">
-        <v>0.0393473714524053</v>
+        <v>0.04401087166991854</v>
       </c>
       <c r="K255" t="n">
         <v>6.879150893765875</v>
       </c>
       <c r="L255" t="n">
-        <v>0.05800133785907757</v>
+        <v>0.06901955652368036</v>
       </c>
       <c r="M255" t="n">
         <v>6.879150893765875</v>
       </c>
       <c r="N255" t="n">
-        <v>0.0980214152685792</v>
+        <v>0.08270186293898543</v>
       </c>
       <c r="O255" t="n">
         <v>6.879150893765875</v>
@@ -7831,25 +7831,25 @@
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.03768492390873875</v>
+        <v>0.04120426943262413</v>
       </c>
       <c r="G256" t="n">
         <v>6.915356951101485</v>
       </c>
       <c r="J256" t="n">
-        <v>0.03768492390873875</v>
+        <v>0.04120426943262413</v>
       </c>
       <c r="K256" t="n">
         <v>6.915356951101485</v>
       </c>
       <c r="L256" t="n">
-        <v>0.05712617166072104</v>
+        <v>0.06932171582575448</v>
       </c>
       <c r="M256" t="n">
         <v>6.915356951101485</v>
       </c>
       <c r="N256" t="n">
-        <v>0.09701676912786969</v>
+        <v>0.0891192141936228</v>
       </c>
       <c r="O256" t="n">
         <v>6.915356951101485</v>
@@ -7857,25 +7857,25 @@
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.03681559545377304</v>
+        <v>0.03792848267899353</v>
       </c>
       <c r="G257" t="n">
         <v>6.951563008437095</v>
       </c>
       <c r="J257" t="n">
-        <v>0.03681559545377304</v>
+        <v>0.03792848267899353</v>
       </c>
       <c r="K257" t="n">
         <v>6.951563008437095</v>
       </c>
       <c r="L257" t="n">
-        <v>0.05415837745530833</v>
+        <v>0.07068057296601871</v>
       </c>
       <c r="M257" t="n">
         <v>6.951563008437095</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1034209848749986</v>
+        <v>0.08141835438030701</v>
       </c>
       <c r="O257" t="n">
         <v>6.951563008437095</v>
@@ -7883,25 +7883,25 @@
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.03690900884150165</v>
+        <v>0.03870779831497292</v>
       </c>
       <c r="G258" t="n">
         <v>6.987769065772704</v>
       </c>
       <c r="J258" t="n">
-        <v>0.03690900884150165</v>
+        <v>0.03870779831497292</v>
       </c>
       <c r="K258" t="n">
         <v>6.987769065772704</v>
       </c>
       <c r="L258" t="n">
-        <v>0.05540329452531265</v>
+        <v>0.06443932058856652</v>
       </c>
       <c r="M258" t="n">
         <v>6.987769065772704</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1040618686311954</v>
+        <v>0.08564724228581912</v>
       </c>
       <c r="O258" t="n">
         <v>6.987769065772704</v>
@@ -7909,25 +7909,25 @@
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.03605210320957221</v>
+        <v>0.03653655616611806</v>
       </c>
       <c r="G259" t="n">
         <v>7.023975123108314</v>
       </c>
       <c r="J259" t="n">
-        <v>0.03605210320957221</v>
+        <v>0.03653655616611806</v>
       </c>
       <c r="K259" t="n">
         <v>7.023975123108314</v>
       </c>
       <c r="L259" t="n">
-        <v>0.05350193197340236</v>
+        <v>0.06552761387445928</v>
       </c>
       <c r="M259" t="n">
         <v>7.023975123108314</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1011748442334507</v>
+        <v>0.08112515193620451</v>
       </c>
       <c r="O259" t="n">
         <v>7.023975123108314</v>
@@ -7935,25 +7935,25 @@
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.03455100672171997</v>
+        <v>0.03453925282896009</v>
       </c>
       <c r="G260" t="n">
         <v>7.060181180443924</v>
       </c>
       <c r="J260" t="n">
-        <v>0.03455100672171997</v>
+        <v>0.03453925282896009</v>
       </c>
       <c r="K260" t="n">
         <v>7.060181180443924</v>
       </c>
       <c r="L260" t="n">
-        <v>0.05382849601146157</v>
+        <v>0.06344266333557706</v>
       </c>
       <c r="M260" t="n">
         <v>7.060181180443924</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1004035866975677</v>
+        <v>0.07988541040844832</v>
       </c>
       <c r="O260" t="n">
         <v>7.060181180443924</v>
@@ -7961,25 +7961,25 @@
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.03302469742151497</v>
+        <v>0.03271358905424536</v>
       </c>
       <c r="G261" t="n">
         <v>7.096387237779534</v>
       </c>
       <c r="J261" t="n">
-        <v>0.03302469742151497</v>
+        <v>0.03271358905424536</v>
       </c>
       <c r="K261" t="n">
         <v>7.096387237779534</v>
       </c>
       <c r="L261" t="n">
-        <v>0.04944762764316891</v>
+        <v>0.05956557123664281</v>
       </c>
       <c r="M261" t="n">
         <v>7.096387237779534</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1029442138584593</v>
+        <v>0.0817304051670442</v>
       </c>
       <c r="O261" t="n">
         <v>7.096387237779534</v>
@@ -7987,25 +7987,25 @@
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.02988473260302762</v>
+        <v>0.0318531557242723</v>
       </c>
       <c r="G262" t="n">
         <v>7.132593295115144</v>
       </c>
       <c r="J262" t="n">
-        <v>0.02988473260302762</v>
+        <v>0.0318531557242723</v>
       </c>
       <c r="K262" t="n">
         <v>7.132593295115144</v>
       </c>
       <c r="L262" t="n">
-        <v>0.05218525640020955</v>
+        <v>0.0578977163885371</v>
       </c>
       <c r="M262" t="n">
         <v>7.132593295115144</v>
       </c>
       <c r="N262" t="n">
-        <v>0.1034733240164571</v>
+        <v>0.07705968422981083</v>
       </c>
       <c r="O262" t="n">
         <v>7.132593295115144</v>
@@ -8013,25 +8013,25 @@
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.02998402351971485</v>
+        <v>0.03122138456061263</v>
       </c>
       <c r="G263" t="n">
         <v>7.168799352450754</v>
       </c>
       <c r="J263" t="n">
-        <v>0.02998402351971485</v>
+        <v>0.03122138456061263</v>
       </c>
       <c r="K263" t="n">
         <v>7.168799352450754</v>
       </c>
       <c r="L263" t="n">
-        <v>0.04815951423348699</v>
+        <v>0.06020222794050026</v>
       </c>
       <c r="M263" t="n">
         <v>7.168799352450754</v>
       </c>
       <c r="N263" t="n">
-        <v>0.1058728191760171</v>
+        <v>0.08085446693911148</v>
       </c>
       <c r="O263" t="n">
         <v>7.168799352450754</v>
@@ -8039,25 +8039,25 @@
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.02888744024720959</v>
+        <v>0.02827785404888891</v>
       </c>
       <c r="G264" t="n">
         <v>7.205005409786363</v>
       </c>
       <c r="J264" t="n">
-        <v>0.02888744024720959</v>
+        <v>0.02827785404888891</v>
       </c>
       <c r="K264" t="n">
         <v>7.205005409786363</v>
       </c>
       <c r="L264" t="n">
-        <v>0.04537940566751123</v>
+        <v>0.05671618259837384</v>
       </c>
       <c r="M264" t="n">
         <v>7.205005409786363</v>
       </c>
       <c r="N264" t="n">
-        <v>0.09816218166814671</v>
+        <v>0.0799020126717125</v>
       </c>
       <c r="O264" t="n">
         <v>7.205005409786363</v>
